--- a/src/results/kl_content_vs_domain.xlsx
+++ b/src/results/kl_content_vs_domain.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6006562394409126</v>
+        <v>0.9251511857443364</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5140648490122401</v>
+        <v>0.7620693316763634</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.477452083984183</v>
+        <v>0.7842021244848932</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6184173132138232</v>
+        <v>0.9805763031769701</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5752841456888848</v>
+        <v>0.9228475915176979</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4921853728232786</v>
+        <v>0.7936678103050605</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6561552049546702</v>
+        <v>1.021656157081017</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7758346995788798</v>
+        <v>1.202232665100662</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.730249848402359</v>
+        <v>1.195083493543541</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5507626904539298</v>
+        <v>0.9048165736872354</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5097738401156459</v>
+        <v>0.879107954112294</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.5150868719357055</v>
+        <v>1.003431014672907</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7659960643140019</v>
+        <v>1.10254227034616</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6023854028278619</v>
+        <v>0.9454770549090322</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8004096180779974</v>
+        <v>1.655622795138359</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7540390046171732</v>
+        <v>1.309345107064612</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6666773043684373</v>
+        <v>1.051825159337061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.6394202446583863</v>
+        <v>1.078862827749338</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5100126993679333</v>
+        <v>0.81612081962609</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.4749251603978977</v>
+        <v>0.7725947570821188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.7614346865363162</v>
+        <v>1.32078453497408</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.6737031090198544</v>
+        <v>1.061984453095498</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4679390418083255</v>
+        <v>0.7658686418432765</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.594513629007586</v>
+        <v>1.158926839087477</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5601797556342527</v>
+        <v>0.8923965870319139</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5147494042551717</v>
+        <v>0.8828807322248121</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.4868816874787782</v>
+        <v>0.7961545396071323</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4943455194547152</v>
+        <v>0.7940398241272142</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.5750587353501438</v>
+        <v>0.9763419090948953</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.6125203047482622</v>
+        <v>1.088159863689639</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.5040249341049442</v>
+        <v>0.8093659912769549</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5055023842669155</v>
+        <v>0.8097386869533613</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5172126319318253</v>
+        <v>0.8002194508143495</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5279306480604539</v>
+        <v>0.8045413470862837</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.5191906165139111</v>
+        <v>0.8839604572400914</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.2709963365231917</v>
+        <v>0.5163440213014413</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.6045025645922981</v>
+        <v>0.958535990820544</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4648523827376018</v>
+        <v>1.162657416639946</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4736446987681839</v>
+        <v>0.780416014936605</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.007889811593841639</v>
+        <v>-0.009328921433373671</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.6938395517167446</v>
+        <v>1.152525195679933</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5874869679720381</v>
+        <v>0.9736341010902606</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5643375863482801</v>
+        <v>1.297472128273978</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.5990457476873547</v>
+        <v>0.9230993929333375</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8020655970352654</v>
+        <v>0.9770271529592774</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8113889532045915</v>
+        <v>1.300188020951307</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.7191213807384406</v>
+        <v>1.546153676316226</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.6739155603159158</v>
+        <v>1.20609419516364</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.6266197251338157</v>
+        <v>1.019139453594172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.7719897319739162</v>
+        <v>1.196628386353387</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.480051396378577</v>
+        <v>0.8406185143355298</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.5962915605494619</v>
+        <v>1.161778438445792</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.4990453834932723</v>
+        <v>0.8019126382143702</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.7218771222449408</v>
+        <v>1.19045678195221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.7425208189330139</v>
+        <v>1.64406325608195</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.6968586840790576</v>
+        <v>1.299300129651006</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.4871512350478486</v>
+        <v>0.8060291675244182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.4416544864600802</v>
+        <v>0.9968093941272378</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.510232011685544</v>
+        <v>0.8160782051549252</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.534487388282239</v>
+        <v>0.808228217767328</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.5714169863760175</v>
+        <v>0.8973516234105906</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.651930886723056</v>
+        <v>1.149662857102538</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.00456675294311994</v>
+        <v>1.371301553812185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.7067293537613037</v>
+        <v>0.8979241089680022</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.5388255860652824</v>
+        <v>0.8117268046484413</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.4939411347201113</v>
+        <v>0.8023308361177167</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.6179932578919405</v>
+        <v>1.058689616851366</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5779274288435179</v>
+        <v>0.9597311102219686</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.5059489608497444</v>
+        <v>0.793655383802047</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.542285671605204</v>
+        <v>0.8820544615209158</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.5272915610965684</v>
+        <v>0.9002505895642162</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.7582866753154796</v>
+        <v>1.65331287479124</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.7675027913289278</v>
+        <v>1.103010743362235</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.5320670861471846</v>
+        <v>1.144124984441628</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.5176135823767993</v>
+        <v>0.7992675294739581</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.5089195431457716</v>
+        <v>0.87845264203492</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.4950234734336392</v>
+        <v>0.7977031503880849</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.4818025251932206</v>
+        <v>1.004918637784497</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.5070137454130099</v>
+        <v>0.8128335718637812</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.8006317242857622</v>
+        <v>1.656729989157039</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.7542553607167379</v>
+        <v>1.310307363760873</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.6668828273305583</v>
+        <v>1.052679628979815</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.5874869679720381</v>
+        <v>0.9736341010902606</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.7225687218454563</v>
+        <v>1.191739326397291</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.5525898298139794</v>
+        <v>0.9133102250669155</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.4956519171732275</v>
+        <v>0.7978591721836809</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.6418891868722517</v>
+        <v>0.8027227852954837</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.4402000803190848</v>
+        <v>0.9953481725579773</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.6105706556722432</v>
+        <v>0.9985257383160193</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.473443950670043</v>
+        <v>1.177096843518948</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.5959436824192121</v>
+        <v>0.9354285654204095</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.5357230559198708</v>
+        <v>1.145872458093022</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.621854045808126</v>
+        <v>1.102173543057682</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.003130977900491801</v>
+        <v>0.2885249267089345</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.4464914290174098</v>
+        <v>1.004635220030704</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.5210543149744989</v>
+        <v>0.8865023898254771</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.5135765171143716</v>
+        <v>0.821578825130743</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.5284503448853383</v>
+        <v>1.140922812366161</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.4902746345167236</v>
+        <v>0.714503395830094</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.7574149880649279</v>
+        <v>0.9724883674677001</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.7114817891938328</v>
+        <v>1.084087129779844</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.6250584216751288</v>
+        <v>1.046991585851753</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.5305921923522883</v>
+        <v>0.9005245002959414</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.4907834134077879</v>
+        <v>0.7994926286410695</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.5778514065214622</v>
+        <v>0.9598427629497396</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.002721068270541498</v>
+        <v>0.003015071025280447</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.3937937339814045</v>
+        <v>0.402040483774579</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.7020440901702445</v>
+        <v>1.164768315389567</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.3483811968013244</v>
+        <v>0.3949164317674301</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.654329973515289</v>
+        <v>1.016867235342934</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.4802027048352119</v>
+        <v>0.787535684465967</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.5874869679720381</v>
+        <v>0.9736341010902606</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.4921853728232786</v>
+        <v>0.7936678103050605</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.7303869163960004</v>
+        <v>1.19508138732885</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.5498442480266633</v>
+        <v>0.8856880781593204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.7538388284320459</v>
+        <v>1.309312010068817</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.8095177988740521</v>
+        <v>1.104809434058442</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.5084011629095626</v>
+        <v>0.8130099040738472</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.4440524446674365</v>
+        <v>1.000933600989995</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.7580335980053102</v>
+        <v>1.091519160643542</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.813846369883884</v>
+        <v>1.303090774223941</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.7525186475372635</v>
+        <v>0.9708822545719143</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.7066727957410057</v>
+        <v>1.082389595924046</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.6204253995894669</v>
+        <v>1.045324440417545</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.771972976582864</v>
+        <v>1.157126597218684</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.4996726726423966</v>
+        <v>0.8021783106325583</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.5681753610689265</v>
+        <v>0.8402796965008181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.4674567367534873</v>
+        <v>1.003931981225926</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.5135467390317162</v>
+        <v>0.8216396937944614</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.7556598934699111</v>
+        <v>1.312131528785209</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.4421045550580366</v>
+        <v>0.9977525088168081</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.5752841456888848</v>
+        <v>0.9228475915176979</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.719544479631357</v>
+        <v>1.150365203900187</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.5303758413222843</v>
+        <v>0.9026686090036761</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.5081857076200115</v>
+        <v>1.090453557507115</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.5104018992748692</v>
+        <v>0.8159920862280736</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.4774003897985523</v>
+        <v>0.7842022986857551</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.5315112931955098</v>
+        <v>0.9716699779419523</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.5683827472412131</v>
+        <v>1.083222161725817</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.6487795090440738</v>
+        <v>1.046142100548664</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.543905966186926</v>
+        <v>0.8859548301057605</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.541467501093442</v>
+        <v>0.7931090934313132</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.476943801712326</v>
+        <v>0.7726264619423427</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.7999673908241263</v>
+        <v>1.655891769342095</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.7536082273604165</v>
+        <v>1.309578869092147</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.6662680987740144</v>
+        <v>1.052032734757469</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.7256235832803387</v>
+        <v>1.153413220353133</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.4862440082148677</v>
+        <v>1.059995385067475</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.480051396378577</v>
+        <v>0.8406185143355298</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.4778653039044789</v>
+        <v>0.783992099392521</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.7760576788558101</v>
+        <v>1.202466806333066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.7070905323552281</v>
+        <v>1.304865447552159</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.766266203288982</v>
+        <v>1.102883248215501</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.7551619983648222</v>
+        <v>0.9714058884172551</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.7092687720501192</v>
+        <v>1.082943039489161</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.6229259336649657</v>
+        <v>1.045867975200999</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.720906769228436</v>
+        <v>1.190825161130525</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.003522335031410384</v>
+        <v>0.2888858810129574</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.4470566570033783</v>
+        <v>1.005197686377464</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.5092684532938081</v>
+        <v>0.8159083644324522</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.811416481343344</v>
+        <v>1.107894385802455</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.5749470521413744</v>
+        <v>0.8110395791943045</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.6124059509900321</v>
+        <v>0.9003023474705429</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.693934586815539</v>
+        <v>1.153008121267897</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.5379246494456402</v>
+        <v>1.290141852419778</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.4930642723757469</v>
+        <v>1.08734780026408</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.6170524688931442</v>
+        <v>1.034777040740063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.6938050674451746</v>
+        <v>0.9673891174138604</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.7658423414358785</v>
+        <v>1.102577451388186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.6243177140516517</v>
+        <v>1.049620302549755</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.6120022751606462</v>
+        <v>0.9620680614896875</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.4859168392105859</v>
+        <v>1.192826672629859</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.5147702967578196</v>
+        <v>0.8219952608780432</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.545875720225144</v>
+        <v>0.909890661523359</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.5305921923522883</v>
+        <v>0.9005245002959414</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.480065581215994</v>
+        <v>0.7866742383695804</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.5804577251203613</v>
+        <v>0.8187628032829893</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.5137663643496321</v>
+        <v>1.096984294537662</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.7537111607773304</v>
+        <v>0.9709570719707696</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.7078438723906679</v>
+        <v>1.082468672815592</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.6215532897066977</v>
+        <v>1.045402101449318</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.7721412768866881</v>
+        <v>1.197423670884637</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.574119702414803</v>
+        <v>0.9226375361752605</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.5330695360947558</v>
+        <v>0.8082442268551389</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.4883403096353498</v>
+        <v>0.7988463550005407</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.6119802474015924</v>
+        <v>1.054868618009125</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.005229053737757906</v>
+        <v>0.2783237528758306</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.6158179008036555</v>
+        <v>0.9047861053116246</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.5801729178723267</v>
+        <v>0.81806566225674</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.001411982538289157</v>
+        <v>0.4023500350798024</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.480051396378577</v>
+        <v>0.8406185143355298</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.6045025645922981</v>
+        <v>0.958535990820544</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.5084504756410342</v>
+        <v>1.285794488867437</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.5726193329461753</v>
+        <v>0.9739088391417525</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.4912158691765995</v>
+        <v>0.7933492809089383</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.3881870590208416</v>
+        <v>0.8437139661855002</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.4660163787522322</v>
+        <v>0.7717237840964803</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.5344240184643225</v>
+        <v>0.904715844874459</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.7242653065127765</v>
+        <v>1.191936519506979</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.6671596847695089</v>
+        <v>0.9469300328248199</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.4819133211437011</v>
+        <v>0.7906259106340428</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.6105664544985002</v>
+        <v>0.9612751316359143</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.7185507494429584</v>
+        <v>1.189805315787567</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1.0111328324688</v>
+        <v>1.080289987075832</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.6277723986636564</v>
+        <v>1.039247667390604</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.5331477624034205</v>
+        <v>0.98741648837243</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.4837548925363499</v>
+        <v>0.7838171772697139</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.5984238127285088</v>
+        <v>0.9053906674357205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.4776838977840286</v>
+        <v>1.010574966033383</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.6149141909129613</v>
+        <v>0.9716635923413418</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.5323365171849384</v>
+        <v>1.183728486429264</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.5013511368540552</v>
+        <v>1.040350276124655</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.766646179247911</v>
+        <v>1.294946667666711</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.6250757849934008</v>
+        <v>1.047030124807407</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.5637758133162106</v>
+        <v>0.9343678160062792</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.6184173132138232</v>
+        <v>0.9805763031769701</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.5061141976645372</v>
+        <v>0.8096937291822263</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.5173496359938339</v>
+        <v>0.8247297348223899</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.5982196850958632</v>
+        <v>0.9218615071990631</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.6790550763099459</v>
+        <v>1.045300624997171</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.7730868745805141</v>
+        <v>1.19847753556293</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.5124725506101819</v>
+        <v>0.8190686780079089</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.5708032187152575</v>
+        <v>0.9349921379667659</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.4984952140853634</v>
+        <v>0.801818688443401</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.4847762240172538</v>
+        <v>0.7838549960904776</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.7068931436419978</v>
+        <v>1.182327166446044</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.7751623533392132</v>
+        <v>1.161605015643351</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.8049965390109113</v>
+        <v>1.663130660002236</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.8143351233536988</v>
+        <v>1.110784904955627</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.5463525660363906</v>
+        <v>0.8852475101494343</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.6178054966395019</v>
+        <v>1.009453232784819</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.7066528959830991</v>
+        <v>1.182299727162589</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.40182332858359</v>
+        <v>0.7485515355909331</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.5754402112890188</v>
+        <v>0.9035284669797958</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.703855751805904</v>
+        <v>1.180540922939193</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.6022461320635195</v>
+        <v>1.17049186955002</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.5354326577457433</v>
+        <v>0.904961133294546</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.508203755433044</v>
+        <v>0.8735872506309847</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.5151872058299167</v>
+        <v>0.8220602544230596</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.5939614561347774</v>
+        <v>1.157822765181761</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.5112431605243881</v>
+        <v>0.8187712083289204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.5941396217080936</v>
+        <v>0.9166075345436369</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.5296794476667871</v>
+        <v>0.901234518440594</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.5059891216711152</v>
+        <v>0.8097351777541896</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.7080784481856572</v>
+        <v>1.183779967035533</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.5874869679720381</v>
+        <v>0.9736341010902606</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.6103135410736518</v>
+        <v>0.9992578928547016</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.564592005240703</v>
+        <v>1.296976663779622</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.5178359708966128</v>
+        <v>0.8248289664701212</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.515040632306609</v>
+        <v>0.822007614376669</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.543905966186926</v>
+        <v>0.8859548301057605</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.3961721222324364</v>
+        <v>0.6836071386768621</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.6249774080026272</v>
+        <v>0.9171012635629811</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.005722584807563865</v>
+        <v>0.006383140819778305</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.6102361142854303</v>
+        <v>1.084647289073029</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.759760702896024</v>
+        <v>1.317788614706045</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.8156285117387028</v>
+        <v>1.112532527464772</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.2971001991276088</v>
+        <v>0.7664692548041706</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1.016127186660797</v>
+        <v>1.080308649558468</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.7742725885733329</v>
+        <v>1.202170835770731</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.5287563153563123</v>
+        <v>1.140067129806242</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.63092262088579</v>
+        <v>1.138659808989161</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.4876287902480587</v>
+        <v>0.7888125846860762</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.7737451956589788</v>
+        <v>1.159653805646729</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.505523230624264</v>
+        <v>0.8095296850537064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.7582372004669664</v>
+        <v>1.091620561568922</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.7298596302391213</v>
+        <v>1.194325578929917</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.6906615681288837</v>
+        <v>1.100191201786831</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.5930476607874037</v>
+        <v>1.156267262962512</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.5100121141842502</v>
+        <v>0.8161271876364102</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.5033254768752925</v>
+        <v>1.041139135198765</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.8095413035598503</v>
+        <v>0.8893724982224133</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.5030457814761768</v>
+        <v>0.8056253464069706</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.511949306442247</v>
+        <v>0.8164495691285552</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.4961743804129929</v>
+        <v>0.7981955945459819</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.5060899815282843</v>
+        <v>0.8098260913854762</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.564647121911473</v>
+        <v>1.297422262911572</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.2852564012916069</v>
+        <v>0.6905856838873534</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.6923943533240565</v>
+        <v>1.049237009245282</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.4674567367534873</v>
+        <v>1.003931981225926</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.6199741487064104</v>
+        <v>0.9107387317951309</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.002782312435445793</v>
+        <v>0.4045992360076677</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.6263404363753264</v>
+        <v>0.9494829025377663</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.5752841456888848</v>
+        <v>0.9228475915176979</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.586878052129718</v>
+        <v>0.8846132081003446</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.40182332858359</v>
+        <v>0.7485515355909331</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.6238309803816657</v>
+        <v>0.9812396747978469</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.6330642191776333</v>
+        <v>0.989738072531985</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0.5964592983517919</v>
+        <v>1.161805099536567</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.4493825448300773</v>
+        <v>0.799965221053682</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.7750219144814838</v>
+        <v>1.161492035442104</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.6042900605328243</v>
+        <v>1.213746462992864</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.4957306442269463</v>
+        <v>0.7979124913723817</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.4769876951159101</v>
+        <v>0.77768632045761</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.6536168951899896</v>
+        <v>0.9647000843027527</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.4912158691765995</v>
+        <v>0.7933492809089383</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.5058317851691435</v>
+        <v>0.8097189976521512</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.6000492240341959</v>
+        <v>0.9243621920393591</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.5362706932000687</v>
+        <v>0.904974404969567</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.6100716725113579</v>
+        <v>0.897140503265181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.5638036642775844</v>
+        <v>0.8876006355793847</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.7592382746268913</v>
+        <v>1.092744516514538</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.8150894386995162</v>
+        <v>1.304440538171306</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.4932423776558644</v>
+        <v>1.070435198633322</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.4987518039950561</v>
+        <v>1.078851910309706</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.9133873120813211</v>
+        <v>1.188235858747638</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.5120424878806242</v>
+        <v>0.8165698000770351</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.5942203675323584</v>
+        <v>0.9164297500094949</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.7007853487918478</v>
+        <v>1.179304675031934</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.7722196504311367</v>
+        <v>1.19722019516806</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.5518038386716035</v>
+        <v>0.8876790204652035</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.5065818633872063</v>
+        <v>0.8781870767483215</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.5504156222658719</v>
+        <v>0.8863505060913084</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.5052289100747341</v>
+        <v>0.8768653016915404</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.7763163545822119</v>
+        <v>1.163253050824435</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.7773830320284503</v>
+        <v>1.164508235182245</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.5498247931403408</v>
+        <v>0.9114518428328982</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.6113325635159776</v>
+        <v>0.8989539024575023</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.7145955753441948</v>
+        <v>1.147991179603878</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.4335328512216905</v>
+        <v>0.9616363119716375</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.5357401162328252</v>
+        <v>1.145944945302291</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.7140984755589062</v>
+        <v>1.148526077313738</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.5364322532267052</v>
+        <v>1.145289764256723</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.7714281570247011</v>
+        <v>1.196160152881235</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.5175443333503588</v>
+        <v>0.8245390871344461</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.4561164357391147</v>
+        <v>0.9815764878376714</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.5507626904539298</v>
+        <v>0.9048165736872354</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.7266256628485734</v>
+        <v>1.192999712469995</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.6507639487571596</v>
+        <v>1.011069752334873</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.7546598751505789</v>
+        <v>1.086979311609661</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.441284026626288</v>
+        <v>0.9965912285912136</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.8103650490439921</v>
+        <v>1.298089698803732</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.5874869679720381</v>
+        <v>0.9736341010902606</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.7663033244902087</v>
+        <v>1.295417156244694</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.4493825448300773</v>
+        <v>0.799965221053682</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.7821428025893818</v>
+        <v>1.210980135096017</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.5233505392577787</v>
+        <v>0.8982734872145269</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.5343112851967439</v>
+        <v>0.808663669989255</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.5290551116765003</v>
+        <v>0.9011652575302479</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.5347970006146151</v>
+        <v>0.9896205918281874</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.5931164603496929</v>
+        <v>0.9163335731980065</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.6187416390751018</v>
+        <v>0.9089015200882787</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.4493825448300773</v>
+        <v>0.799965221053682</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.5194282263536564</v>
+        <v>1.136549070821849</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.6440797448109135</v>
+        <v>1.004349073791385</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.4962380407298554</v>
+        <v>1.175297994823818</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.5394662901371123</v>
+        <v>0.9063522918568704</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.5624221260132576</v>
+        <v>0.9426836346928026</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.6238309803816657</v>
+        <v>0.9812396747978469</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.524463812185918</v>
+        <v>0.8984831630703159</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.5487229409660401</v>
+        <v>1.152511172722902</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.5684949149071238</v>
+        <v>0.6986696015812173</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.5969777524877322</v>
+        <v>0.9202397095788424</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.7231408702352859</v>
+        <v>1.15150030765314</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.5592316590640217</v>
+        <v>0.8912788934279851</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.5846523385396194</v>
+        <v>0.823669758195022</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.6223428613935859</v>
+        <v>0.913557152338528</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.5066533151288171</v>
+        <v>0.8738729052802318</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.5290590394960357</v>
+        <v>0.9011286846481411</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.5026960450108879</v>
+        <v>0.8060002607660285</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.7758409640193364</v>
+        <v>1.162257196413647</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.5367395747530843</v>
+        <v>0.9055445607947552</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.511273877446607</v>
+        <v>0.816177947254238</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.5368295343919249</v>
+        <v>1.18536195278948</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.5857667549009983</v>
+        <v>0.9917385700172701</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.5768290059470809</v>
+        <v>1.317310852555214</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.5217365606481907</v>
+        <v>0.7935096669221362</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.5058150452632076</v>
+        <v>0.7936083685744214</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0.6998902756073623</v>
+        <v>1.05942309850988</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.52421591155307</v>
+        <v>0.8990509251553289</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.6102920866003034</v>
+        <v>0.8977808369094461</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.5297813462956368</v>
+        <v>0.8031534166987926</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.4577276884287985</v>
+        <v>0.7914904501816945</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.589386505000849</v>
+        <v>0.9377001146258521</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0.6078763270877966</v>
+        <v>1.046435937996625</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.7521097918236626</v>
+        <v>1.099147923823703</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.6113902211621074</v>
+        <v>1.046277668348691</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.4413359316007087</v>
+        <v>0.6532295078409319</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1.016307893474708</v>
+        <v>1.010432249814712</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.7033688025466308</v>
+        <v>1.064043360835601</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.7575213402076694</v>
+        <v>1.314739329745646</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0.8133177822534652</v>
+        <v>1.109754165537558</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0.6699853688905447</v>
+        <v>1.056615399094345</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.5310341616655254</v>
+        <v>0.9027166314437385</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.522486348512599</v>
+        <v>0.8974467798892408</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.4383163213972944</v>
+        <v>0.7696044049798559</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>1.017959773290549</v>
+        <v>1.308371901557461</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.6227125092586951</v>
+        <v>0.9139881720070478</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0.5760798891987891</v>
+        <v>0.9043632787410276</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.5410240692164086</v>
+        <v>1.06699335378894</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0.2283975634450452</v>
+        <v>0.6749086909127469</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.6149141909129613</v>
+        <v>0.9716635923413418</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.1373908425006979</v>
+        <v>0.3786150638679462</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0.7589423972795546</v>
+        <v>1.316844151076587</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0.8147841333362914</v>
+        <v>1.111671961150397</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.7192066470298464</v>
+        <v>1.191423360700792</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0.4992493520346758</v>
+        <v>1.078876114551234</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0.5130328831896311</v>
+        <v>0.7822924343198053</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0.5009602595390691</v>
+        <v>0.8023666826813944</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0.5682892572801094</v>
+        <v>1.306622699698165</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0.007613741441063618</v>
+        <v>1.085710095892315</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.6486823819379056</v>
+        <v>1.049407807327577</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0.5101616541174289</v>
+        <v>0.8155656963122825</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0.8174811079357933</v>
+        <v>1.115281131367188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0.4734936876686381</v>
+        <v>0.6938410490489123</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0.5828442855524216</v>
+        <v>0.8214071023393741</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0.7024307196037441</v>
+        <v>1.165340586769594</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0.7672000148430473</v>
+        <v>1.328896734761429</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0.823304539253079</v>
+        <v>1.12265500806447</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1.366474630683818</v>
+        <v>1.383283339117241</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0.6791807100370785</v>
+        <v>1.069190500093204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0.6127904367062095</v>
+        <v>0.9707834229449559</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0.5592346891373322</v>
+        <v>0.8581254374774394</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0.5847091536767084</v>
+        <v>0.8238060149574141</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0.6224010298192296</v>
+        <v>0.9137001346922736</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0.5757773729070758</v>
+        <v>0.9040766917682419</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0.4920669035195493</v>
+        <v>1.069671142063382</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.5664207190010178</v>
+        <v>0.9005175094443117</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0.400997819075796</v>
+        <v>0.4093440614403802</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.6772781497403375</v>
+        <v>1.064232031979684</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0.7666973094203159</v>
+        <v>1.103047782530701</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0.7039202076343845</v>
+        <v>1.167365241737782</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0.8059081156734713</v>
+        <v>0.9814441665795927</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0.6717655979628574</v>
+        <v>1.056287246266585</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0.552166259362216</v>
+        <v>0.8871422948940501</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.5069351115536067</v>
+        <v>0.877653073587546</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.6468054111593382</v>
+        <v>1.095362611778106</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.513511403912852</v>
+        <v>0.8604093657647406</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0.508203755433044</v>
+        <v>0.8735872506309847</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0.508203755433044</v>
+        <v>0.8735872506309847</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.6149141909129613</v>
+        <v>0.9716635923413418</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.2945878436566248</v>
+        <v>1.382873000608318</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0.5794555705164132</v>
+        <v>0.9830701586770633</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0.8135428052650958</v>
+        <v>0.8241594161382686</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0.7668328600915374</v>
+        <v>0.9140709783612474</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0.5576546773787037</v>
+        <v>1.078308539597659</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0.8130998760689292</v>
+        <v>0.9900565051540713</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.7664013529928823</v>
+        <v>1.102652809700569</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0.8224804914482647</v>
+        <v>1.315353527948743</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0.6784218748159341</v>
+        <v>1.065225681702834</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0.7359084355037959</v>
+        <v>0.9635767327337086</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0.6047467664172371</v>
+        <v>1.037740988277038</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0.7673235690171576</v>
+        <v>1.103874616125087</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0.8234320200919443</v>
+        <v>1.316699068736741</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0.6045025645922981</v>
+        <v>0.958535990820544</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0.566416338244202</v>
+        <v>1.308823887823753</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0.5208358443496358</v>
+        <v>1.104364738837706</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.5748949320304265</v>
+        <v>0.9430872121692568</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0.518390054440141</v>
+        <v>1.004112965841077</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.5852161982716318</v>
+        <v>0.9909718761806159</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.5839323819542704</v>
+        <v>0.822781614158685</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>0.5750049862126619</v>
+        <v>0.9030071338759323</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.7036011850547897</v>
+        <v>1.166975145422432</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0.5072053030554533</v>
+        <v>0.8566166842415504</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0.6245365357525244</v>
+        <v>0.9165131788909052</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0.7066803307396361</v>
+        <v>1.171380779405432</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>0.6486162440032331</v>
+        <v>1.148045959020233</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0.5026768416881935</v>
+        <v>0.806067910936006</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>0.6238273339291602</v>
+        <v>1.135141591450392</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0.5268423814820127</v>
+        <v>0.9002197389891996</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0.7839753467342502</v>
+        <v>1.173413819128643</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0.6733197574268317</v>
+        <v>1.061115285974553</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0.5507626904539298</v>
+        <v>0.9048165736872354</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0.5690403043224164</v>
+        <v>0.9340233692950888</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>0.582159848769169</v>
+        <v>1.016268812725203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0.7996331743497831</v>
+        <v>0.9744670698342591</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>0.5350055538724104</v>
+        <v>0.8407016319724134</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>0.5044246683515217</v>
+        <v>0.8093089943517654</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>0.4764899298871533</v>
+        <v>0.6978525031006638</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>0.5900674537071842</v>
+        <v>1.026309217954979</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0.3981447055847172</v>
+        <v>0.406950876107914</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>0.5416699351132422</v>
+        <v>0.8811088670264807</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0.9254943261036076</v>
+        <v>1.26867825078507</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0.534692114471275</v>
+        <v>0.8937474754957208</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0.5809953425792205</v>
+        <v>0.8189774297528674</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0.7004417292196995</v>
+        <v>1.162450975382636</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>0.6762254408844949</v>
+        <v>1.065034597790177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>0.8001272925368239</v>
+        <v>1.655545036729936</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0.7251307506894639</v>
+        <v>1.192174635370317</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>

--- a/src/results/kl_content_vs_domain.xlsx
+++ b/src/results/kl_content_vs_domain.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -863,11 +863,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.309345107064612</v>
+        <v>1.051825159337061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -889,11 +889,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.051825159337061</v>
+        <v>1.309345107064612</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -993,11 +993,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.32078453497408</v>
+        <v>1.061984453095498</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1019,11 +1019,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.061984453095498</v>
+        <v>1.32078453497408</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2033,11 +2033,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.8973516234105906</v>
+        <v>1.149662857102538</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2059,11 +2059,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.149662857102538</v>
+        <v>0.8973516234105906</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2137,11 +2137,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.8117268046484413</v>
+        <v>1.058689616851366</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2163,11 +2163,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.8023308361177167</v>
+        <v>0.8117268046484413</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2189,11 +2189,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.058689616851366</v>
+        <v>0.8023308361177167</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2553,11 +2553,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.310307363760873</v>
+        <v>1.052679628979815</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2579,11 +2579,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.052679628979815</v>
+        <v>1.310307363760873</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2787,11 +2787,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.177096843518948</v>
+        <v>0.9354285654204095</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2813,11 +2813,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.9354285654204095</v>
+        <v>1.177096843518948</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2891,11 +2891,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.2885249267089345</v>
+        <v>1.004635220030704</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2917,11 +2917,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.004635220030704</v>
+        <v>0.2885249267089345</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3074,11 +3074,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.084087129779844</v>
+        <v>1.046991585851753</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3100,11 +3100,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.046991585851753</v>
+        <v>1.084087129779844</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3204,11 +3204,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Cloud Computing</t>
+          <t>Banking</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.003015071025280447</v>
+        <v>0.402040483774579</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3230,11 +3230,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Banking</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.402040483774579</v>
+        <v>1.164768315389567</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3256,11 +3256,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Cloud Computing</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1.164768315389567</v>
+        <v>0.003015071025280447</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3646,11 +3646,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1.082389595924046</v>
+        <v>1.045324440417545</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3672,11 +3672,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1.045324440417545</v>
+        <v>1.082389595924046</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3828,11 +3828,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1.312131528785209</v>
+        <v>0.9977525088168081</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3854,11 +3854,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.9977525088168081</v>
+        <v>1.312131528785209</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.083222161725817</v>
+        <v>1.046142100548664</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4088,11 +4088,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1.046142100548664</v>
+        <v>1.083222161725817</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -4218,11 +4218,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1.309578869092147</v>
+        <v>1.052032734757469</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4244,11 +4244,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1.052032734757469</v>
+        <v>1.309578869092147</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.082943039489161</v>
+        <v>1.045867975200999</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4505,11 +4505,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1.045867975200999</v>
+        <v>1.082943039489161</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4557,11 +4557,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.2888858810129574</v>
+        <v>1.005197686377464</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4583,11 +4583,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1.005197686377464</v>
+        <v>0.2888858810129574</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4687,11 +4687,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.9003023474705429</v>
+        <v>1.153008121267897</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4713,11 +4713,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1.153008121267897</v>
+        <v>0.9003023474705429</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4739,11 +4739,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.290141852419778</v>
+        <v>1.034777040740063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4765,11 +4765,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1.08734780026408</v>
+        <v>1.290141852419778</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4791,11 +4791,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1.034777040740063</v>
+        <v>1.08734780026408</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4843,11 +4843,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1.102577451388186</v>
+        <v>1.049620302549755</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4869,11 +4869,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1.049620302549755</v>
+        <v>1.102577451388186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -5131,11 +5131,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1.082468672815592</v>
+        <v>1.045402101449318</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -5157,11 +5157,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1.045402101449318</v>
+        <v>1.082468672815592</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -5235,11 +5235,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.8082442268551389</v>
+        <v>1.054868618009125</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5261,11 +5261,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.7988463550005407</v>
+        <v>0.8082442268551389</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5287,11 +5287,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1.054868618009125</v>
+        <v>0.7988463550005407</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5755,11 +5755,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DevOps</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1.080289987075832</v>
+        <v>1.039247667390604</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5781,11 +5781,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1.039247667390604</v>
+        <v>1.080289987075832</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5989,11 +5989,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1.294946667666711</v>
+        <v>1.047030124807407</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -6015,11 +6015,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1.047030124807407</v>
+        <v>1.294946667666711</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -7679,11 +7679,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.6905856838873534</v>
+        <v>1.049237009245282</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -7705,11 +7705,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1.049237009245282</v>
+        <v>0.6905856838873534</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -9031,11 +9031,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1.086979311609661</v>
+        <v>0.9965912285912136</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -9057,11 +9057,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.9965912285912136</v>
+        <v>1.086979311609661</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -10227,11 +10227,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1.099147923823703</v>
+        <v>1.046277668348691</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -10253,11 +10253,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1.046277668348691</v>
+        <v>1.099147923823703</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -10305,11 +10305,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1.010432249814712</v>
+        <v>1.064043360835601</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -10331,11 +10331,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1.064043360835601</v>
+        <v>1.010432249814712</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -10357,11 +10357,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>1.314739329745646</v>
+        <v>1.056615399094345</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1.109754165537558</v>
+        <v>1.314739329745646</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -10409,11 +10409,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>1.056615399094345</v>
+        <v>1.109754165537558</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -10851,11 +10851,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1.306622699698165</v>
+        <v>1.049407807327577</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -10877,11 +10877,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1.085710095892315</v>
+        <v>1.306622699698165</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -10903,11 +10903,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1.049407807327577</v>
+        <v>1.085710095892315</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -11059,11 +11059,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1.328896734761429</v>
+        <v>1.12265500806447</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -11085,11 +11085,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1.12265500806447</v>
+        <v>1.069190500093204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -11111,11 +11111,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1.383283339117241</v>
+        <v>1.328896734761429</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -11137,11 +11137,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1.069190500093204</v>
+        <v>1.383283339117241</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -11345,11 +11345,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DevOps</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0.4093440614403802</v>
+        <v>1.064232031979684</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -11371,11 +11371,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>1.064232031979684</v>
+        <v>0.4093440614403802</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -11553,11 +11553,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>1.095362611778106</v>
+        <v>0.8604093657647406</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -11579,11 +11579,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.8604093657647406</v>
+        <v>1.095362611778106</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -11839,11 +11839,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1.102652809700569</v>
+        <v>1.065225681702834</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -11865,11 +11865,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1.315353527948743</v>
+        <v>1.102652809700569</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -11891,11 +11891,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1.065225681702834</v>
+        <v>1.315353527948743</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -12203,11 +12203,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>0.9030071338759323</v>
+        <v>1.166975145422432</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -12229,11 +12229,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>1.166975145422432</v>
+        <v>0.9030071338759323</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -12281,11 +12281,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Cybersecurity</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1.171380779405432</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -12333,11 +12333,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Cybersecurity</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1.171380779405432</v>
+        <v>0</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -12749,11 +12749,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>0.8811088670264807</v>
+        <v>1.26867825078507</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -12775,11 +12775,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>1.26867825078507</v>
+        <v>0.8811088670264807</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>

--- a/src/results/kl_content_vs_domain.xlsx
+++ b/src/results/kl_content_vs_domain.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9251511857443364</v>
+        <v>2.711978678030391</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7620693316763634</v>
+        <v>2.811086312970962</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7842021244848932</v>
+        <v>4.095189441585775</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9805763031769701</v>
+        <v>3.788451271358973</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9228475915176979</v>
+        <v>3.525981028549917</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7936678103050605</v>
+        <v>2.341822043970831</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.021656157081017</v>
+        <v>4.424020729188626</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.202232665100662</v>
+        <v>5.245126235711101</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.195083493543541</v>
+        <v>5.194454554333685</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9048165736872354</v>
+        <v>3.143104182736366</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.879107954112294</v>
+        <v>2.968472608332762</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.003431014672907</v>
+        <v>3.905367147028273</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.10254227034616</v>
+        <v>4.167934023936781</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9454770549090322</v>
+        <v>3.477793352621579</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -837,11 +837,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.655622795138359</v>
+        <v>3.597212426864761</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -863,11 +863,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.051825159337061</v>
+        <v>3.039860480908064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.309345107064612</v>
+        <v>3.7021158170832</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.078862827749338</v>
+        <v>4.976128255929501</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.81612081962609</v>
+        <v>2.606996790034425</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.7725947570821188</v>
+        <v>3.53082817950725</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.061984453095498</v>
+        <v>3.681063449567651</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.32078453497408</v>
+        <v>5.754468870631289</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.7658686418432765</v>
+        <v>2.271028857805698</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.158926839087477</v>
+        <v>4.682608470168031</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1097,11 +1097,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.8923965870319139</v>
+        <v>2.985317840491363</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1123,11 +1123,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8828807322248121</v>
+        <v>3.674979831390265</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.7961545396071323</v>
+        <v>4.644235257846269</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7940398241272142</v>
+        <v>2.34293571944496</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9763419090948953</v>
+        <v>3.259461633739601</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.088159863689639</v>
+        <v>3.359509940780391</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.8093659912769549</v>
+        <v>2.597575832410767</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8097386869533613</v>
+        <v>4.053483233114857</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.8002194508143495</v>
+        <v>3.004663560739919</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1331,11 +1331,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.8045413470862837</v>
+        <v>2.987345390929563</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1357,11 +1357,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8839604572400914</v>
+        <v>3.021547465853074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.5163440213014413</v>
+        <v>1.723702701202609</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.958535990820544</v>
+        <v>3.355555361901345</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.162657416639946</v>
+        <v>3.68424227249903</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.780416014936605</v>
+        <v>4.085025941823573</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.009328921433373671</v>
+        <v>2.939517435372488</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.152525195679933</v>
+        <v>5.352952274063424</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.9736341010902606</v>
+        <v>3.259957067061348</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.297472128273978</v>
+        <v>3.007193096895661</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.9230993929333375</v>
+        <v>4.724886495544438</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1617,11 +1617,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.9770271529592774</v>
+        <v>3.015775862538224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1643,11 +1643,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.300188020951307</v>
+        <v>3.050461426771327</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.546153676316226</v>
+        <v>5.771629922421908</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.20609419516364</v>
+        <v>5.471935055275102</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.019139453594172</v>
+        <v>4.20276988500293</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.196628386353387</v>
+        <v>4.66983804451761</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.8406185143355298</v>
+        <v>3.357183674881658</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.161778438445792</v>
+        <v>4.239917986765248</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.8019126382143702</v>
+        <v>2.587425524030488</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.19045678195221</v>
+        <v>5.162069170945258</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.64406325608195</v>
+        <v>3.009224957805241</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.299300129651006</v>
+        <v>3.661319754448255</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.8060291675244182</v>
+        <v>3.363410551772938</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.9968093941272378</v>
+        <v>5.384878808790114</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.8160782051549252</v>
+        <v>2.606859326075734</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2007,11 +2007,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.808228217767328</v>
+        <v>3.592197736919162</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2033,11 +2033,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.149662857102538</v>
+        <v>3.035937121254685</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.8973516234105906</v>
+        <v>3.696889521089056</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.371301553812185</v>
+        <v>1.977863906900977</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.8979241089680022</v>
+        <v>3.668642666771185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2137,11 +2137,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.058689616851366</v>
+        <v>4.144999753578629</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2163,11 +2163,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.8117268046484413</v>
+        <v>5.186661523136146</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2189,11 +2189,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.8023308361177167</v>
+        <v>3.58027399992297</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.9597311102219686</v>
+        <v>3.901629326130327</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.793655383802047</v>
+        <v>4.556104016270843</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.8820544615209158</v>
+        <v>3.589826023657684</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.9002505895642162</v>
+        <v>4.123937244634946</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.65331287479124</v>
+        <v>4.170539772886846</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2345,11 +2345,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.103010743362235</v>
+        <v>5.965368039601065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.144124984441628</v>
+        <v>5.114413432032268</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2397,11 +2397,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.7992675294739581</v>
+        <v>4.192957180144703</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2423,11 +2423,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.87845264203492</v>
+        <v>4.597277769130899</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.7977031503880849</v>
+        <v>2.353202152215462</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.004918637784497</v>
+        <v>4.049145415627207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.8128335718637812</v>
+        <v>2.602445925959741</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2527,11 +2527,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.656729989157039</v>
+        <v>3.62149523725919</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2553,11 +2553,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.052679628979815</v>
+        <v>3.254535006844541</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.310307363760873</v>
+        <v>3.354361417925618</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.9736341010902606</v>
+        <v>3.259957067061348</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.191739326397291</v>
+        <v>4.189269835545515</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.9133102250669155</v>
+        <v>2.676083942172715</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.7978591721836809</v>
+        <v>2.353562615834209</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.8027227852954837</v>
+        <v>2.658205896253776</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.9953481725579773</v>
+        <v>2.708471792257142</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.9985257383160193</v>
+        <v>3.699837088062662</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2787,11 +2787,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.9354285654204095</v>
+        <v>4.593114743277579</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2813,11 +2813,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.177096843518948</v>
+        <v>3.481474445188781</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.145872458093022</v>
+        <v>4.155473715078871</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.102173543057682</v>
+        <v>3.415882744397522</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2891,11 +2891,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.004635220030704</v>
+        <v>1.996257051752005</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2917,11 +2917,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.2885249267089345</v>
+        <v>3.675472453478736</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.8865023898254771</v>
+        <v>2.997413055752284</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.821578825130743</v>
+        <v>2.614956892436414</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.140922812366161</v>
+        <v>4.572446148629727</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.714503395830094</v>
+        <v>2.951311446820562</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3048,11 +3048,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.9724883674677001</v>
+        <v>3.609204510969096</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3074,11 +3074,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.046991585851753</v>
+        <v>3.244007597290495</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.084087129779844</v>
+        <v>3.343360140985501</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.9005245002959414</v>
+        <v>3.621214128004835</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.7994926286410695</v>
+        <v>2.932772137822475</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.9598427629497396</v>
+        <v>3.901501855848593</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3204,11 +3204,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Banking</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.402040483774579</v>
+        <v>5.444641413076798</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3230,11 +3230,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Banking</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1.164768315389567</v>
+        <v>2.984714230296576</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.003015071025280447</v>
+        <v>1.494360333755123</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.3949164317674301</v>
+        <v>2.950872346255414</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1.016867235342934</v>
+        <v>3.584316802803488</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.787535684465967</v>
+        <v>4.104745120120812</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.9736341010902606</v>
+        <v>3.259957067061348</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.7936678103050605</v>
+        <v>2.341822043970831</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1.19508138732885</v>
+        <v>5.194463642361002</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.8856880781593204</v>
+        <v>3.607767692056407</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3464,11 +3464,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1.309312010068817</v>
+        <v>4.179840760701252</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3490,11 +3490,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1.104809434058442</v>
+        <v>5.666165719188609</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.8130099040738472</v>
+        <v>2.602748266818794</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3542,11 +3542,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1.000933600989995</v>
+        <v>4.832460070785934</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3568,11 +3568,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1.091519160643542</v>
+        <v>2.725624658281382</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3594,11 +3594,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1.303090774223941</v>
+        <v>3.373047598392492</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3620,11 +3620,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.9708822545719143</v>
+        <v>3.61848674480926</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3646,11 +3646,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1.045324440417545</v>
+        <v>5.950091762950752</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1.082389595924046</v>
+        <v>5.637780485036386</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1.157126597218684</v>
+        <v>5.211063836929208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.8021783106325583</v>
+        <v>2.587410869283717</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.8402796965008181</v>
+        <v>3.097607837184779</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1.003931981225926</v>
+        <v>3.89641894606736</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.8216396937944614</v>
+        <v>2.614761043796963</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.9977525088168081</v>
+        <v>5.381695183074451</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1.312131528785209</v>
+        <v>3.714212826434402</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.9228475915176979</v>
+        <v>3.525981028549917</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1.150365203900187</v>
+        <v>4.629615619449921</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.9026686090036761</v>
+        <v>4.138071233497964</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1.090453557507115</v>
+        <v>4.071000928486096</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.8159920862280736</v>
+        <v>2.606883057989851</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.7842022986857551</v>
+        <v>4.095600281339792</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4036,11 +4036,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.9716699779419523</v>
+        <v>3.605555356627584</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.046142100548664</v>
+        <v>3.240881718168308</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1.083222161725817</v>
+        <v>3.34009363337625</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.8859548301057605</v>
+        <v>2.029798318117932</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.7931090934313132</v>
+        <v>2.14110609791518</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.7726264619423427</v>
+        <v>3.899925652309328</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4192,11 +4192,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1.655891769342095</v>
+        <v>3.618736055659375</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4218,11 +4218,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1.052032734757469</v>
+        <v>3.252171794374241</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1.309578869092147</v>
+        <v>3.351891796572891</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.153413220353133</v>
+        <v>4.648208157405881</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1.059995385067475</v>
+        <v>2.329600833067359</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.8406185143355298</v>
+        <v>3.36206393899415</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.783992099392521</v>
+        <v>4.094627978867123</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1.202466806333066</v>
+        <v>4.244811025261351</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1.304865447552159</v>
+        <v>3.68374911371534</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1.102883248215501</v>
+        <v>4.170243596783871</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4453,11 +4453,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.9714058884172551</v>
+        <v>3.620348783041</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.045867975200999</v>
+        <v>5.953823965023012</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1.082943039489161</v>
+        <v>5.641247930694018</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1.190825161130525</v>
+        <v>4.184306509600763</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4557,11 +4557,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1.005197686377464</v>
+        <v>2.000413716224249</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4583,11 +4583,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.2888858810129574</v>
+        <v>5.453440394502685</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.8159083644324522</v>
+        <v>2.606831587820099</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1.107894385802455</v>
+        <v>3.016547471071009</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4661,11 +4661,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.8110395791943045</v>
+        <v>3.60685750545191</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4687,11 +4687,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.153008121267897</v>
+        <v>3.04740562910214</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.9003023474705429</v>
+        <v>3.712168101571638</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4739,11 +4739,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.034777040740063</v>
+        <v>2.94776620688222</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4765,11 +4765,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1.290141852419778</v>
+        <v>3.522401995843224</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4791,11 +4791,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1.08734780026408</v>
+        <v>3.624156417817094</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.9673891174138604</v>
+        <v>3.557014440800374</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4843,11 +4843,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1.049620302549755</v>
+        <v>2.998804899888139</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4869,11 +4869,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1.102577451388186</v>
+        <v>3.588701688868807</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.9620680614896875</v>
+        <v>3.362540288211578</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1.192826672629859</v>
+        <v>4.636256294628171</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.8219952608780432</v>
+        <v>2.615071378084162</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.909890661523359</v>
+        <v>2.664724887842877</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.9005245002959414</v>
+        <v>3.621214128004835</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.7866742383695804</v>
+        <v>2.913335717061498</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.8187628032829893</v>
+        <v>4.741916515047127</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1.096984294537662</v>
+        <v>2.615347097818801</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -5105,11 +5105,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.9709570719707696</v>
+        <v>3.618382889995565</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -5131,11 +5131,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1.045402101449318</v>
+        <v>5.949883610554298</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1.082468672815592</v>
+        <v>5.637587097553423</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1.197423670884637</v>
+        <v>4.675474101569423</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.9226375361752605</v>
+        <v>3.206565117306952</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5235,11 +5235,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1.054868618009125</v>
+        <v>2.931920996799751</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5261,11 +5261,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.8082442268551389</v>
+        <v>3.501834769147191</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5287,11 +5287,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.7988463550005407</v>
+        <v>3.602726426861746</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.2783237528758306</v>
+        <v>1.969462346184545</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.9047861053116246</v>
+        <v>3.717557239793742</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.81806566225674</v>
+        <v>4.735706596535085</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.4023500350798024</v>
+        <v>1.494776924448729</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.8406185143355298</v>
+        <v>3.357183674881658</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.958535990820544</v>
+        <v>3.355555361901345</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1.285794488867437</v>
+        <v>4.204290789334585</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.9739088391417525</v>
+        <v>4.668531407772891</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.7933492809089383</v>
+        <v>2.341547991209719</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.8437139661855002</v>
+        <v>3.198357933822101</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.7717237840964803</v>
+        <v>3.618921441739625</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.904715844874459</v>
+        <v>4.150457196141846</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1.191936519506979</v>
+        <v>5.173443819229684</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.9469300328248199</v>
+        <v>3.472760292405569</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.7906259106340428</v>
+        <v>4.113028441293737</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.9612751316359143</v>
+        <v>3.700196332652877</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1.189805315787567</v>
+        <v>4.629584586133598</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1.039247667390604</v>
+        <v>3.578397050518015</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1.080289987075832</v>
+        <v>2.939338043295907</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.98741648837243</v>
+        <v>3.593269604306236</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.7838171772697139</v>
+        <v>2.316424329988281</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.9053906674357205</v>
+        <v>2.732516097666648</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1.010574966033383</v>
+        <v>3.557200934528244</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.9716635923413418</v>
+        <v>3.745783097423464</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1.183728486429264</v>
+        <v>4.147443662932175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1.040350276124655</v>
+        <v>4.473398992690782</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5989,11 +5989,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1.047030124807407</v>
+        <v>2.999221436975841</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -6015,11 +6015,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1.294946667666711</v>
+        <v>3.589243092099721</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.9343678160062792</v>
+        <v>3.489041197247275</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.9805763031769701</v>
+        <v>3.788451271358973</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.8096937291822263</v>
+        <v>2.598197852716025</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.8247297348223899</v>
+        <v>2.61892145939897</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.9218615071990631</v>
+        <v>2.7017710835137</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1.045300624997171</v>
+        <v>4.991686905402128</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1.19847753556293</v>
+        <v>4.223374605296272</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.8190686780079089</v>
+        <v>4.077997237262826</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.9349921379667659</v>
+        <v>3.489966244665095</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.801818688443401</v>
+        <v>2.587400794206121</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.7838549960904776</v>
+        <v>2.316893276006442</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1.182327166446044</v>
+        <v>5.105452887390057</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1.161605015643351</v>
+        <v>4.699158818734517</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -6379,11 +6379,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1.663130660002236</v>
+        <v>4.212958909348212</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -6405,11 +6405,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1.110784904955627</v>
+        <v>6.03507902097005</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.8852475101494343</v>
+        <v>3.606573091120666</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1.009453232784819</v>
+        <v>4.152690296247315</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1.182299727162589</v>
+        <v>5.105172628305542</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.7485515355909331</v>
+        <v>2.987473977216064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.9035284669797958</v>
+        <v>3.061177540496788</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1.180540922939193</v>
+        <v>5.093466093824063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1.17049186955002</v>
+        <v>4.75503565695636</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.904961133294546</v>
+        <v>2.649079173705837</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.8735872506309847</v>
+        <v>2.898662233460566</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.8220602544230596</v>
+        <v>2.615158638954221</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1.157822765181761</v>
+        <v>4.675997756300557</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.8187712083289204</v>
+        <v>5.023731097373726</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.9166075345436369</v>
+        <v>2.685318006345247</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.901234518440594</v>
+        <v>2.637777468960611</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.8097351777541896</v>
+        <v>2.598021998617728</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1.183779967035533</v>
+        <v>4.14769671091283</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.9736341010902606</v>
+        <v>3.259957067061348</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.9992578928547016</v>
+        <v>3.357419791724249</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1.296976663779622</v>
+        <v>3.005117202885903</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.8248289664701212</v>
+        <v>2.619051664843498</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.822007614376669</v>
+        <v>2.615087777896788</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.8859548301057605</v>
+        <v>2.029798318117932</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.6836071386768621</v>
+        <v>2.072556400942394</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.9171012635629811</v>
+        <v>3.765588971135279</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.006383140819778305</v>
+        <v>1.50229230678545</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1.084647289073029</v>
+        <v>3.345437850085732</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -7107,11 +7107,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1.317788614706045</v>
+        <v>4.222451998610048</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -7133,11 +7133,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1.112532527464772</v>
+        <v>5.731231512833478</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.7664692548041706</v>
+        <v>2.909939165484229</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1.080308649558468</v>
+        <v>1.475441206519702</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1.202170835770731</v>
+        <v>4.243044992770677</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1.140067129806242</v>
+        <v>4.567926160007067</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1.138659808989161</v>
+        <v>3.581904730235753</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.7888125846860762</v>
+        <v>2.329204471261485</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1.159653805646729</v>
+        <v>4.687298480222417</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.8095296850537064</v>
+        <v>2.597937606260176</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1.091620561568922</v>
+        <v>3.373292488816401</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1.194325578929917</v>
+        <v>5.189709780950952</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1.100191201786831</v>
+        <v>5.044609277642346</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1.156267262962512</v>
+        <v>4.666422165645612</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.8161271876364102</v>
+        <v>2.607301030886576</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1.041139135198765</v>
+        <v>4.474507413279904</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.8893724982224133</v>
+        <v>3.008372529934013</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.8056253464069706</v>
+        <v>2.59308152118116</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.8164495691285552</v>
+        <v>2.607419718533259</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.7981955945459819</v>
+        <v>2.353809873750596</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.8098260913854762</v>
+        <v>2.592971615827593</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1.297422262911572</v>
+        <v>4.797858860546123</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1.049237009245282</v>
+        <v>3.619159503783275</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.6905856838873534</v>
+        <v>1.994282930077837</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1.003931981225926</v>
+        <v>3.89641894606736</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.9107387317951309</v>
+        <v>3.733091835598265</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.4045992360076677</v>
+        <v>1.498538147741945</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.9494829025377663</v>
+        <v>2.872379882629405</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.9228475915176979</v>
+        <v>3.525981028549917</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.8846132081003446</v>
+        <v>2.932946609960803</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.7485515355909331</v>
+        <v>2.987473977216064</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.9812396747978469</v>
+        <v>3.789442118817522</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.989738072531985</v>
+        <v>3.829327921147557</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1.161805099536567</v>
+        <v>4.24001178265268</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.799965221053682</v>
+        <v>3.19129945316457</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1.161492035442104</v>
+        <v>4.698727592734974</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1.213746462992864</v>
+        <v>4.304732049075964</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.7979124913723817</v>
+        <v>2.353348970742586</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.77768632045761</v>
+        <v>2.301950804910139</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.9647000843027527</v>
+        <v>2.923275993373967</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.7933492809089383</v>
+        <v>2.341547991209719</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.8097189976521512</v>
+        <v>2.597900474718702</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.9243621920393591</v>
+        <v>2.709681893946517</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.904974404969567</v>
+        <v>2.649346202104921</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -8251,11 +8251,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.897140503265181</v>
+        <v>3.000901900879864</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -8277,11 +8277,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.8876006355793847</v>
+        <v>3.696086647184092</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -8303,11 +8303,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1.092744516514538</v>
+        <v>4.841171063756216</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -8329,11 +8329,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1.304440538171306</v>
+        <v>3.378275524558605</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1.070435198633322</v>
+        <v>2.353657853820323</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1.078851910309706</v>
+        <v>4.976850387520341</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1.188235858747638</v>
+        <v>3.529712361107113</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.8165698000770351</v>
+        <v>2.607589284131392</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.9164297500094949</v>
+        <v>2.684850350036473</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1.179304675031934</v>
+        <v>5.084911946218662</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1.19722019516806</v>
+        <v>4.216851561928433</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -8537,11 +8537,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.8876790204652035</v>
+        <v>4.191213645559353</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -8563,11 +8563,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.8781870767483215</v>
+        <v>3.617744372304838</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -8589,11 +8589,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.8863505060913084</v>
+        <v>4.183419598532057</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -8615,11 +8615,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.8768653016915404</v>
+        <v>3.611426388481375</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1.163253050824435</v>
+        <v>4.709545692842298</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1.164508235182245</v>
+        <v>4.718347457055737</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.9114518428328982</v>
+        <v>2.669327153651593</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.8989539024575023</v>
+        <v>3.673652339166176</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1.147991179603878</v>
+        <v>2.656915977828922</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.9616363119716375</v>
+        <v>3.700152629316733</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1.145944945302291</v>
+        <v>4.602681356571948</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1.148526077313738</v>
+        <v>5.145844930319424</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1.145289764256723</v>
+        <v>4.1521037293303</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1.196160152881235</v>
+        <v>4.211124661988829</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.8245390871344461</v>
+        <v>2.619042364184185</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.9815764878376714</v>
+        <v>3.790568251817275</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.9048165736872354</v>
+        <v>3.143104182736366</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1.192999712469995</v>
+        <v>4.194363328026087</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1.011069752334873</v>
+        <v>3.560179968504188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -9031,11 +9031,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.9965912285912136</v>
+        <v>4.801890059915781</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -9057,11 +9057,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1.086979311609661</v>
+        <v>2.712222045727824</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -9083,11 +9083,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1.298089698803732</v>
+        <v>3.354692289530363</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.9736341010902606</v>
+        <v>3.259957067061348</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1.295417156244694</v>
+        <v>4.785278247418089</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.799965221053682</v>
+        <v>3.19129945316457</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1.210980135096017</v>
+        <v>4.289591208288084</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.8982734872145269</v>
+        <v>2.628729154086114</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.808663669989255</v>
+        <v>3.573534744263261</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.9011652575302479</v>
+        <v>2.63753817892738</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.9896205918281874</v>
+        <v>3.260722074542648</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.9163335731980065</v>
+        <v>5.2137769602022</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.9089015200882787</v>
+        <v>3.723947624448577</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.799965221053682</v>
+        <v>3.19129945316457</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>1.136549070821849</v>
+        <v>4.546226078801531</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>1.004349073791385</v>
+        <v>3.899143001448363</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>1.175297994823818</v>
+        <v>3.173976747321055</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.9063522918568704</v>
+        <v>2.653389409612415</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.9426836346928026</v>
+        <v>2.072378091385907</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.9812396747978469</v>
+        <v>3.789442118817522</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.8984831630703159</v>
+        <v>2.629109176897537</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>1.152511172722902</v>
+        <v>4.190055759554705</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.6986696015812173</v>
+        <v>2.107541645073434</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.9202397095788424</v>
+        <v>2.696624532744212</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1.15150030765314</v>
+        <v>4.63659928462664</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.8912788934279851</v>
+        <v>3.667114209647271</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.823669758195022</v>
+        <v>4.777739287058305</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.913557152338528</v>
+        <v>3.747473999710828</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.8738729052802318</v>
+        <v>3.178823753384848</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.9011286846481411</v>
+        <v>2.637688318502071</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.8060002607660285</v>
+        <v>2.592769882864254</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1.162257196413647</v>
+        <v>4.243105297341947</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.9055445607947552</v>
+        <v>5.127686509976563</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.816177947254238</v>
+        <v>2.607503882992366</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>1.18536195278948</v>
+        <v>2.65136683754638</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -9941,11 +9941,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.9917385700172701</v>
+        <v>4.919149019091581</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -9967,11 +9967,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>1.317310852555214</v>
+        <v>3.322146918630371</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.7935096669221362</v>
+        <v>3.539839481957958</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.7936083685744214</v>
+        <v>2.978306895644174</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>1.05942309850988</v>
+        <v>3.665743612123725</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.8990509251553289</v>
+        <v>4.118067016355094</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.8977808369094461</v>
+        <v>3.699102079670697</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.8031534166987926</v>
+        <v>3.591480943567036</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.7914904501816945</v>
+        <v>2.681421688483532</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.9377001146258521</v>
+        <v>3.647309737840444</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>1.046435937996625</v>
+        <v>3.484893938637397</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -10227,11 +10227,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1.046277668348691</v>
+        <v>4.150523446997902</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -10253,11 +10253,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1.099147923823703</v>
+        <v>3.609709899112628</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.6532295078409319</v>
+        <v>2.51932896833973</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1.064043360835601</v>
+        <v>3.687056469011135</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1.010432249814712</v>
+        <v>2.754798200211547</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -10357,11 +10357,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>1.056615399094345</v>
+        <v>4.207269490689817</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1.314739329745646</v>
+        <v>3.656186155652314</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -10409,11 +10409,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>1.109754165537558</v>
+        <v>5.7080402945961</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.9027166314437385</v>
+        <v>2.642268354349291</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.8974467798892408</v>
+        <v>2.625921621524737</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.7696044049798559</v>
+        <v>2.612348389659889</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -10513,11 +10513,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>1.308371901557461</v>
+        <v>3.064426739748488</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -10539,11 +10539,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.9139881720070478</v>
+        <v>5.496239384526737</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -10565,11 +10565,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0.9043632787410276</v>
+        <v>3.782213212681263</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -10591,11 +10591,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>1.06699335378894</v>
+        <v>1.959464718904604</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -10617,11 +10617,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0.6749086909127469</v>
+        <v>3.275787769942471</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.9716635923413418</v>
+        <v>3.745783097423464</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.3786150638679462</v>
+        <v>1.489640934318389</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -10695,11 +10695,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>1.316844151076587</v>
+        <v>4.217839449628165</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -10721,11 +10721,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1.111671961150397</v>
+        <v>5.72418491917407</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1.191423360700792</v>
+        <v>4.186692748535647</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>1.078876114551234</v>
+        <v>4.976395698067938</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0.7822924343198053</v>
+        <v>3.191621482712807</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0.8023666826813944</v>
+        <v>4.033826463265554</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1.049407807327577</v>
+        <v>3.587098175457623</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1.306622699698165</v>
+        <v>3.691574849072623</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1.085710095892315</v>
+        <v>2.957114670953328</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0.8155656963122825</v>
+        <v>2.61920792214071</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1.115281131367188</v>
+        <v>3.040868532010132</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0.6938410490489123</v>
+        <v>4.01113190648849</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -11007,11 +11007,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0.8214071023393741</v>
+        <v>5.449116443412637</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -11033,11 +11033,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1.165340586769594</v>
+        <v>4.760722134328216</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1.12265500806447</v>
+        <v>4.278357092242738</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1.069190500093204</v>
+        <v>3.714366498943337</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -11111,11 +11111,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1.328896734761429</v>
+        <v>3.986543157596581</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -11137,11 +11137,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1.383283339117241</v>
+        <v>5.816702929535777</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0.9707834229449559</v>
+        <v>4.15250956092703</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0.8581254374774394</v>
+        <v>2.588253339336453</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -11215,11 +11215,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0.8238060149574141</v>
+        <v>4.90829423878745</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -11241,11 +11241,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0.9137001346922736</v>
+        <v>3.315925813760587</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -11267,11 +11267,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0.9040766917682419</v>
+        <v>3.418523380873872</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>1.069671142063382</v>
+        <v>4.478650439101072</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.9005175094443117</v>
+        <v>4.428815689971398</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1.064232031979684</v>
+        <v>5.461462846884182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.4093440614403802</v>
+        <v>2.988458590657185</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>1.103047782530701</v>
+        <v>3.419440696634741</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1.167365241737782</v>
+        <v>3.706878977886729</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -11449,11 +11449,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0.9814441665795927</v>
+        <v>3.65132773309605</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -11475,11 +11475,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1.056287246266585</v>
+        <v>3.28008194653524</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -11501,11 +11501,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0.8871422948940501</v>
+        <v>4.1878690715375</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -11527,11 +11527,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.877653073587546</v>
+        <v>3.615033277145613</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -11553,11 +11553,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.8604093657647406</v>
+        <v>3.793652524305171</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -11579,11 +11579,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>1.095362611778106</v>
+        <v>2.906009270826026</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0.8735872506309847</v>
+        <v>2.898662233460566</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0.8735872506309847</v>
+        <v>2.898662233460566</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.9716635923413418</v>
+        <v>3.745783097423464</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1.382873000608318</v>
+        <v>3.984730516998706</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0.9830701586770633</v>
+        <v>3.28694791666735</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0.8241594161382686</v>
+        <v>3.10017503036091</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0.9140709783612474</v>
+        <v>3.782523654973498</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>1.078308539597659</v>
+        <v>3.320232107623856</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -11813,11 +11813,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0.9900565051540713</v>
+        <v>4.907112878241309</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1.065225681702834</v>
+        <v>3.692408688167432</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -11865,11 +11865,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1.102652809700569</v>
+        <v>3.315248647305011</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -11891,11 +11891,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1.315353527948743</v>
+        <v>3.417815575381814</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -11917,11 +11917,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0.9635767327337086</v>
+        <v>3.568478059376749</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -11943,11 +11943,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>1.037740988277038</v>
+        <v>3.209114412476056</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -11969,11 +11969,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1.103874616125087</v>
+        <v>4.915412845808926</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -11995,11 +11995,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1.316699068736741</v>
+        <v>3.422788037429468</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0.958535990820544</v>
+        <v>3.355555361901345</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -12047,11 +12047,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1.308823887823753</v>
+        <v>4.178562289578681</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -12073,11 +12073,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1.104364738837706</v>
+        <v>5.664214632750511</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.9430872121692568</v>
+        <v>3.497055246625211</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>1.004112965841077</v>
+        <v>2.660134845113467</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.9909718761806159</v>
+        <v>3.319025238978161</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -12177,11 +12177,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.822781614158685</v>
+        <v>3.059198700107313</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1.166975145422432</v>
+        <v>3.667253000538098</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -12229,11 +12229,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.9030071338759323</v>
+        <v>3.094624939022055</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0.8566166842415504</v>
+        <v>2.937340330078739</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -12281,11 +12281,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Cybersecurity</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1.171380779405432</v>
+        <v>1</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -12307,11 +12307,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0.9165131788909052</v>
+        <v>5.495384366225682</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -12333,11 +12333,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Cybersecurity</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>3.762643495828875</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>1.148045959020233</v>
+        <v>3.585295489166757</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0.806067910936006</v>
+        <v>2.592843349327829</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1.135141591450392</v>
+        <v>3.530453384461424</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0.9002197389891996</v>
+        <v>2.634616977465053</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1.173413819128643</v>
+        <v>4.303014010611655</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1.061115285974553</v>
+        <v>5.413751931676683</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0.9048165736872354</v>
+        <v>3.143104182736366</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0.9340233692950888</v>
+        <v>3.489780640629311</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1.016268812725203</v>
+        <v>4.531534744602277</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0.9744670698342591</v>
+        <v>3.040659224824976</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>0.8407016319724134</v>
+        <v>2.787005971448859</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>0.8093089943517654</v>
+        <v>2.597611730791097</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -12671,11 +12671,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>0.6978525031006638</v>
+        <v>3.127901702338698</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -12697,11 +12697,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1.026309217954979</v>
+        <v>2.658885305344494</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0.406950876107914</v>
+        <v>1.513141978705477</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1.26867825078507</v>
+        <v>3.547770459333335</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0.8811088670264807</v>
+        <v>3.585750336215074</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0.8937474754957208</v>
+        <v>3.023014906931659</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -12827,11 +12827,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0.8189774297528674</v>
+        <v>5.427244427383135</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -12853,11 +12853,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>1.162450975382636</v>
+        <v>4.742570660268941</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>1.065034597790177</v>
+        <v>3.657267801888358</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>1.655545036729936</v>
+        <v>5.981015164616304</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>1.192174635370317</v>
+        <v>5.174168382440834</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>

--- a/src/results/kl_content_vs_domain.xlsx
+++ b/src/results/kl_content_vs_domain.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.711978678030391</v>
+        <v>0.9976785079640537</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.811086312970962</v>
+        <v>1.033570996885565</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.095189441585775</v>
+        <v>1.409812977916502</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.788451271358973</v>
+        <v>1.33195730005475</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.525981028549917</v>
+        <v>1.260158703515917</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.341822043970831</v>
+        <v>0.850929277647569</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.424020729188626</v>
+        <v>1.487048949830355</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.245126235711101</v>
+        <v>1.65729930937772</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.194454554333685</v>
+        <v>1.64759162468542</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.143104182736366</v>
+        <v>1.145210904811836</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.968472608332762</v>
+        <v>1.088047547242113</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.905367147028273</v>
+        <v>1.362351798597622</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.167934023936781</v>
+        <v>1.427420475135951</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.477793352621579</v>
+        <v>1.246397998589452</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.597212426864761</v>
+        <v>1.280159219646041</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.039860480908064</v>
+        <v>1.111811619926812</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.7021158170832</v>
+        <v>1.308904498665506</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.976128255929501</v>
+        <v>1.604652130010157</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.606996790034425</v>
+        <v>0.9581989036634663</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.53082817950725</v>
+        <v>1.261532455186599</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.681063449567651</v>
+        <v>1.303201691294688</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5.754468870631289</v>
+        <v>1.749976747842099</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.271028857805698</v>
+        <v>0.8202329701345841</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4.682608470168031</v>
+        <v>1.543855320079661</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.985317840491363</v>
+        <v>1.093706220402642</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3.674979831390265</v>
+        <v>1.30154764459267</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4.644235257846269</v>
+        <v>1.535626721003511</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.34293571944496</v>
+        <v>0.85140472399991</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.259461633739601</v>
+        <v>1.181562038716343</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3.359509940780391</v>
+        <v>1.211795112379611</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.597575832410767</v>
+        <v>0.9545786379484534</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.053483233114857</v>
+        <v>1.399576569040094</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.004663560739919</v>
+        <v>1.100165601898876</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.987345390929563</v>
+        <v>1.094385163928344</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3.021547465853074</v>
+        <v>1.105769106063312</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.723702701202609</v>
+        <v>0.5444747102725365</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.355555361901345</v>
+        <v>1.210617289333083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.68424227249903</v>
+        <v>1.304064879666959</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.085025941823573</v>
+        <v>1.407328078799408</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.939517435372488</v>
+        <v>1.07824543025013</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.352952274063424</v>
+        <v>1.677648235635169</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.259957067061348</v>
+        <v>1.181714025678813</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.007193096895661</v>
+        <v>1.101007117739678</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4.724886495544438</v>
+        <v>1.552843538550173</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.015775862538224</v>
+        <v>1.103857131249588</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.050461426771327</v>
+        <v>1.115292866642535</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5.771629922421908</v>
+        <v>1.752954522851585</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5.471935055275102</v>
+        <v>1.699632311696291</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4.20276988500293</v>
+        <v>1.435743804346387</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.66983804451761</v>
+        <v>1.541124391104626</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3.357183674881658</v>
+        <v>1.211102430496274</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4.239917986765248</v>
+        <v>1.444543926312748</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.587425524030488</v>
+        <v>0.9506633751938629</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5.162069170945258</v>
+        <v>1.641337501234782</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3.009224957805241</v>
+        <v>1.101682556503525</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3.661319754448255</v>
+        <v>1.297823671063877</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3.363410551772938</v>
+        <v>1.212955504335622</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5.384878808790114</v>
+        <v>1.683594805023648</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.606859326075734</v>
+        <v>0.9581461734171146</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3.592197736919162</v>
+        <v>1.278764198178463</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3.035937121254685</v>
+        <v>1.110520148269725</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3.696889521089056</v>
+        <v>1.307491796113078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.977863906900977</v>
+        <v>0.6820174274466928</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3.668642666771185</v>
+        <v>1.299821748090305</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4.144999753578629</v>
+        <v>1.421902729136986</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5.186661523136146</v>
+        <v>1.646090238398382</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3.58027399992297</v>
+        <v>1.275439333775189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3.901629326130327</v>
+        <v>1.361394241822388</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4.556104016270843</v>
+        <v>1.516467875936885</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3.589826023657684</v>
+        <v>1.278103739949207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4.123937244634946</v>
+        <v>1.416808348928104</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4.170539772886846</v>
+        <v>1.428045469373117</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5.965368039601065</v>
+        <v>1.78597075349582</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5.114413432032268</v>
+        <v>1.632062716783267</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.192957180144703</v>
+        <v>1.433406255912465</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4.597277769130899</v>
+        <v>1.525464338999265</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2.353202152215462</v>
+        <v>0.8557770185987118</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4.049145415627207</v>
+        <v>1.398505850365915</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2.602445925959741</v>
+        <v>0.9564517435619209</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3.62149523725919</v>
+        <v>1.286886989523065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3.254535006844541</v>
+        <v>1.1800494104157</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3.354361417925618</v>
+        <v>1.210261414878152</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3.259957067061348</v>
+        <v>1.181714025678813</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4.189269835545515</v>
+        <v>1.432526455155426</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2.676083942172715</v>
+        <v>0.9843545102989311</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.353562615834209</v>
+        <v>0.8559301869158958</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2.658205896253776</v>
+        <v>0.9776514201403887</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2.708471792257142</v>
+        <v>0.9963845615358853</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3.699837088062662</v>
+        <v>1.308288788427484</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4.593114743277579</v>
+        <v>1.524558387238786</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3.481474445188781</v>
+        <v>1.247455895200835</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4.155473715078871</v>
+        <v>1.424426432657976</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3.415882744397522</v>
+        <v>1.228435949926632</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.996257051752005</v>
+        <v>0.6912739530402849</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3.675472453478736</v>
+        <v>1.301681683171554</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2.997413055752284</v>
+        <v>1.097749601911634</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2.614956892436414</v>
+        <v>0.9612476126530628</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4.572446148629727</v>
+        <v>1.520048323986572</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2.951311446820562</v>
+        <v>1.082249629809247</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3.609204510969096</v>
+        <v>1.28348739099033</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3.244007597290495</v>
+        <v>1.176809478201871</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3.343360140985501</v>
+        <v>1.206976331514516</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3.621214128004835</v>
+        <v>1.286809364081999</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2.932772137822475</v>
+        <v>1.075948097861257</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3.901501855848593</v>
+        <v>1.361361570250227</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5.444641413076798</v>
+        <v>1.694631898032067</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2.984714230296576</v>
+        <v>1.093504007017626</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1.494360333755123</v>
+        <v>0.4016982448820808</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2.950872346255414</v>
+        <v>1.082100837233023</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3.584316802803488</v>
+        <v>1.276567884845562</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>4.104745120120812</v>
+        <v>1.412143650872169</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3.259957067061348</v>
+        <v>1.181714025678813</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2.341822043970831</v>
+        <v>0.850929277647569</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>5.194463642361002</v>
+        <v>1.647593374247241</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3.607767692056407</v>
+        <v>1.283089213225125</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4.179840760701252</v>
+        <v>1.430273150284996</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5.666165719188609</v>
+        <v>1.734512648984248</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2.602748266818794</v>
+        <v>0.9565679124686688</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4.832460070785934</v>
+        <v>1.575355669424916</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2.725624658281382</v>
+        <v>1.002697634242313</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3.373047598392492</v>
+        <v>1.215816667569774</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3.61848674480926</v>
+        <v>1.286055912144546</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>5.950091762950752</v>
+        <v>1.783406641783279</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>5.637780485036386</v>
+        <v>1.729490457034397</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5.211063836929208</v>
+        <v>1.650784026270236</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2.587410869283717</v>
+        <v>0.950657711344552</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3.097607837184779</v>
+        <v>1.130630148179816</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3.89641894606736</v>
+        <v>1.360057912357251</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2.614761043796963</v>
+        <v>0.9611727142964286</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5.381695183074451</v>
+        <v>1.68300341433412</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3.714212826434402</v>
+        <v>1.312166765121346</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3.525981028549917</v>
+        <v>1.260158703515917</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4.629615619449921</v>
+        <v>1.532473845094576</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4.138071233497964</v>
+        <v>1.420229793650284</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>4.071000928486096</v>
+        <v>1.40388889759404</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2.606883057989851</v>
+        <v>0.9581552770177028</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4.095600281339792</v>
+        <v>1.409913295411703</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3.605555356627584</v>
+        <v>1.282475810641251</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3.240881718168308</v>
+        <v>1.175845428019293</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3.34009363337625</v>
+        <v>1.20599884054065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2.029798318117932</v>
+        <v>0.7079364374372685</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2.14110609791518</v>
+        <v>0.7613225636880731</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3.899925652309328</v>
+        <v>1.360957489443461</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3.618736055659375</v>
+        <v>1.286124808973367</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3.252171794374241</v>
+        <v>1.179323017588604</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3.351891796572891</v>
+        <v>1.209524901840134</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>4.648208157405881</v>
+        <v>1.536481802842409</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2.329600833067359</v>
+        <v>0.8456969366211955</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3.36206393899415</v>
+        <v>1.212555052947803</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>4.094627978867123</v>
+        <v>1.409675865526639</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4.244811025261351</v>
+        <v>1.445697301755049</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3.68374911371534</v>
+        <v>1.303931014476685</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>4.170243596783871</v>
+        <v>1.427974450599466</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3.620348783041</v>
+        <v>1.286570370102776</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>5.953823965023012</v>
+        <v>1.78403369632228</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>5.641247930694018</v>
+        <v>1.730105305342081</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>4.184306509600763</v>
+        <v>1.431340981632182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2.000413716224249</v>
+        <v>0.6933540172798808</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>5.453440394502685</v>
+        <v>1.69624667455755</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2.606831587820099</v>
+        <v>0.958135532872405</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3.016547471071009</v>
+        <v>1.10411295591094</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3.60685750545191</v>
+        <v>1.28283689613743</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3.04740562910214</v>
+        <v>1.114290615233317</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3.712168101571638</v>
+        <v>1.311616099882314</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2.94776620688222</v>
+        <v>1.081047665511341</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3.522401995843224</v>
+        <v>1.259143142073834</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3.624156417817094</v>
+        <v>1.287621548898604</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3.557014440800374</v>
+        <v>1.268921552783878</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2.998804899888139</v>
+        <v>1.098213842595061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3.588701688868807</v>
+        <v>1.277790490535652</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3.362540288211578</v>
+        <v>1.21269672648044</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>4.636256294628171</v>
+        <v>1.533907207518918</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2.615071378084162</v>
+        <v>0.9612913927788458</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2.664724887842877</v>
+        <v>0.9801008207104039</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3.621214128004835</v>
+        <v>1.286809364081999</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2.913335717061498</v>
+        <v>1.069298719212328</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4.741916515047127</v>
+        <v>1.556441382057432</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2.615347097818801</v>
+        <v>0.9613968221000999</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3.618382889995565</v>
+        <v>1.286027210559761</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>5.949883610554298</v>
+        <v>1.783371658114836</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>5.637587097553423</v>
+        <v>1.729456154386334</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>4.675474101569423</v>
+        <v>1.542330569699202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3.206565117306952</v>
+        <v>1.165200307308562</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2.931920996799751</v>
+        <v>1.075657838504403</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3.501834769147191</v>
+        <v>1.253287050896533</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3.602726426861746</v>
+        <v>1.281690899619166</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1.969462346184545</v>
+        <v>0.6777605847817549</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3.717557239793742</v>
+        <v>1.313066796622671</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4.735706596535085</v>
+        <v>1.55513094391749</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1.494776924448729</v>
+        <v>0.4019769812935054</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3.357183674881658</v>
+        <v>1.211102430496274</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3.355555361901345</v>
+        <v>1.210617289333083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4.204290789334585</v>
+        <v>1.43610562030256</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4.668531407772891</v>
+        <v>1.540844548513278</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2.341547991209719</v>
+        <v>0.8508122453569895</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3.198357933822101</v>
+        <v>1.162637532420785</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3.618921441739625</v>
+        <v>1.286176037172645</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4.150457196141846</v>
+        <v>1.42321849591961</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>5.173443819229684</v>
+        <v>1.643538582668771</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3.472760292405569</v>
+        <v>1.244949751053282</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4.113028441293737</v>
+        <v>1.414159604199759</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3.700196332652877</v>
+        <v>1.30838588112155</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4.629584586133598</v>
+        <v>1.532467141855498</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3.578397050518015</v>
+        <v>1.274914948890134</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2.939338043295907</v>
+        <v>1.078184400657793</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3.593269604306236</v>
+        <v>1.279062541304699</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2.316424329988281</v>
+        <v>0.8400247596765728</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2.732516097666648</v>
+        <v>1.005222832237534</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3.557200934528244</v>
+        <v>1.268973981257877</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3.745783097423464</v>
+        <v>1.320630699895796</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>4.147443662932175</v>
+        <v>1.422492159610382</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4.473398992690782</v>
+        <v>1.498148520716465</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>2.999221436975841</v>
+        <v>1.098352733978652</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3.589243092099721</v>
+        <v>1.277941342415531</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3.489041197247275</v>
+        <v>1.249626969887083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3.788451271358973</v>
+        <v>1.33195730005475</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2.598197852716025</v>
+        <v>0.954818071128544</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2.61892145939897</v>
+        <v>0.962762576301168</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2.7017710835137</v>
+        <v>0.9939075148215456</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>4.991686905402128</v>
+        <v>1.607773909829784</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>4.223374605296272</v>
+        <v>1.440634477984104</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>4.077997237262826</v>
+        <v>1.405605994678475</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3.489966244665095</v>
+        <v>1.249892064151829</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>2.587400794206121</v>
+        <v>0.9506538174530438</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>2.316893276006442</v>
+        <v>0.8402271831060203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>5.105452887390057</v>
+        <v>1.630309162155789</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>4.699158818734517</v>
+        <v>1.547383517960787</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>4.212958909348212</v>
+        <v>1.43816522964958</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>6.03507902097005</v>
+        <v>1.797588948245056</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3.606573091120666</v>
+        <v>1.282758039253016</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>4.152690296247315</v>
+        <v>1.423756388366145</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>5.105172628305542</v>
+        <v>1.630254266579773</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2.987473977216064</v>
+        <v>1.0944282066644</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3.061177540496788</v>
+        <v>1.11879965909697</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>5.093466093824063</v>
+        <v>1.627958560271938</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>4.75503565695636</v>
+        <v>1.559204194803383</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>2.649079173705837</v>
+        <v>0.9742120979919646</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2.898662233460566</v>
+        <v>1.0642493317547</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>2.615158638954221</v>
+        <v>0.9613247606688939</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>4.675997756300557</v>
+        <v>1.542442563776635</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>5.023731097373726</v>
+        <v>1.61417290412154</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>2.685318006345247</v>
+        <v>0.9877991590649984</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2.637777468960611</v>
+        <v>0.9699366947705483</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>2.598021998617728</v>
+        <v>0.9547503857328542</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>4.14769671091283</v>
+        <v>1.422553170749273</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>3.259957067061348</v>
+        <v>1.181714025678813</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3.357419791724249</v>
+        <v>1.211172759844496</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>3.005117202885903</v>
+        <v>1.100316569850849</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2.619051664843498</v>
+        <v>0.9628122922662813</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>2.615087777896788</v>
+        <v>0.9612976640268662</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>2.029798318117932</v>
+        <v>0.7079364374372685</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>2.072556400942394</v>
+        <v>0.7287828216219867</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3.765588971135279</v>
+        <v>1.325904282253916</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1.50229230678545</v>
+        <v>0.4069921461155636</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3.345437850085732</v>
+        <v>1.207597581900558</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>4.222451998610048</v>
+        <v>1.440416001632845</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>5.731231512833478</v>
+        <v>1.745930431339525</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2.909939165484229</v>
+        <v>1.068132175633002</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1.475441206519702</v>
+        <v>0.3889570681276036</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>4.243044992770677</v>
+        <v>1.445281170163654</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>4.567926160007067</v>
+        <v>1.51905930760114</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>3.581904730235753</v>
+        <v>1.275894706477379</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>2.329204471261485</v>
+        <v>0.8455267806344401</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>4.687298480222417</v>
+        <v>1.54485639948651</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>2.597937606260176</v>
+        <v>0.9547179018938803</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>3.373292488816401</v>
+        <v>1.215889267059528</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>5.189709780950952</v>
+        <v>1.646677776722361</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>5.044609277642346</v>
+        <v>1.618320203361834</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>4.666422165645612</v>
+        <v>1.540392646498643</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2.607301030886576</v>
+        <v>0.9583155985140274</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>4.474507413279904</v>
+        <v>1.49839627042338</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3.008372529934013</v>
+        <v>1.1013992448069</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>2.59308152118116</v>
+        <v>0.9528469450060904</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>2.607419718533259</v>
+        <v>0.9583611187450835</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>2.353809873750596</v>
+        <v>0.8560352382655233</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2.592971615827593</v>
+        <v>0.9528045600359869</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>4.797858860546123</v>
+        <v>1.568169747675148</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3.619159503783275</v>
+        <v>1.286241817604096</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1.994282930077837</v>
+        <v>0.6902845521851635</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>3.89641894606736</v>
+        <v>1.360057912357251</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>3.733091835598265</v>
+        <v>1.31723680064733</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1.498538147741945</v>
+        <v>0.4044900647357982</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2.872379882629405</v>
+        <v>1.055140913549443</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3.525981028549917</v>
+        <v>1.260158703515917</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>2.932946609960803</v>
+        <v>1.076007586611359</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>2.987473977216064</v>
+        <v>1.0944282066644</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3.789442118817522</v>
+        <v>1.332218810058435</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>3.829327921147557</v>
+        <v>1.34268931028741</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>4.24001178265268</v>
+        <v>1.444566048167524</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>3.19129945316457</v>
+        <v>1.160428185940622</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>4.698727592734974</v>
+        <v>1.547291747113393</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>4.304732049075964</v>
+        <v>1.459714894148392</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2.353348970742586</v>
+        <v>0.8558394076064316</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>2.301950804910139</v>
+        <v>0.8337569394849506</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2.923275993373967</v>
+        <v>1.072704902942303</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2.341547991209719</v>
+        <v>0.8508122453569895</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2.597900474718702</v>
+        <v>0.9547036090922589</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2.709681893946517</v>
+        <v>0.996831245694209</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2.649346202104921</v>
+        <v>0.9743128933718636</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>3.000901900879864</v>
+        <v>1.098912877113497</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>3.696086647184092</v>
+        <v>1.307274597006832</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>4.841171063756216</v>
+        <v>1.577156646783604</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3.378275524558605</v>
+        <v>1.217365379463974</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2.353657853820323</v>
+        <v>0.8559706515538882</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>4.976850387520341</v>
+        <v>1.604797238649084</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>3.529712361107113</v>
+        <v>1.261216383519562</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>2.607589284131392</v>
+        <v>0.9584261485841903</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2.684850350036473</v>
+        <v>0.9876249908531581</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>5.084911946218662</v>
+        <v>1.626277712972749</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>4.216851561928433</v>
+        <v>1.439088774222774</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>4.191213645559353</v>
+        <v>1.432990344870877</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>3.617744372304838</v>
+        <v>1.285850730055967</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>4.183419598532057</v>
+        <v>1.431128997860111</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3.611426388481375</v>
+        <v>1.284102815767845</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>4.709545692842298</v>
+        <v>1.549591447504036</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>4.718347457055737</v>
+        <v>1.551458623262323</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2.669327153651593</v>
+        <v>0.9818264382765428</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>3.673652339166176</v>
+        <v>1.301186354979115</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2.656915977828922</v>
+        <v>0.9771660433303223</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>3.700152629316733</v>
+        <v>1.308374069966058</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>4.602681356571948</v>
+        <v>1.526639037275332</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>5.145844930319424</v>
+        <v>1.63818957938286</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>4.1521037293303</v>
+        <v>1.423615128530877</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4.211124661988829</v>
+        <v>1.437729752633513</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2.619042364184185</v>
+        <v>0.9628087411046331</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>3.790568251817275</v>
+        <v>1.33251594237171</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3.143104182736366</v>
+        <v>1.145210904811836</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>4.194363328026087</v>
+        <v>1.433741559158165</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3.560179968504188</v>
+        <v>1.269811096536796</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>4.801890059915781</v>
+        <v>1.569009602892198</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2.712222045727824</v>
+        <v>0.9977682419949241</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3.354692289530363</v>
+        <v>1.210360049236868</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>3.259957067061348</v>
+        <v>1.181714025678813</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>4.785278247418089</v>
+        <v>1.565544173144911</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>3.19129945316457</v>
+        <v>1.160428185940622</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>4.289591208288084</v>
+        <v>1.456191438956261</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2.628729154086114</v>
+        <v>0.9665005180313336</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>3.573534744263261</v>
+        <v>1.273555230385146</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2.63753817892738</v>
+        <v>0.9698459741201202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3.260722074542648</v>
+        <v>1.181948666110644</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>5.2137769602022</v>
+        <v>1.651304537496651</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3.723947624448577</v>
+        <v>1.314784294989541</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>3.19129945316457</v>
+        <v>1.160428185940622</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>4.546226078801531</v>
+        <v>1.514297455562361</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3.899143001448363</v>
+        <v>1.360756785770154</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>3.173976747321055</v>
+        <v>1.154985296091577</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2.653389409612415</v>
+        <v>0.9758378452408922</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2.072378091385907</v>
+        <v>0.7286967842880184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>3.789442118817522</v>
+        <v>1.332218810058435</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2.629109176897537</v>
+        <v>0.966645072803908</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>4.190055759554705</v>
+        <v>1.432714041615118</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2.107541645073434</v>
+        <v>0.7455221711130796</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2.696624532744212</v>
+        <v>0.9920008178343235</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>4.63659928462664</v>
+        <v>1.533981184730295</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>3.667114209647271</v>
+        <v>1.299405033858418</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>4.777739287058305</v>
+        <v>1.563967482127793</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>3.747473999710828</v>
+        <v>1.321082012934744</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>3.178823753384848</v>
+        <v>1.156511239493633</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2.637688318502071</v>
+        <v>0.9699028966332314</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2.592769882864254</v>
+        <v>0.9527267570974906</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>4.243105297341947</v>
+        <v>1.445295382632019</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>5.127686509976563</v>
+        <v>1.634654584749781</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2.607503882992366</v>
+        <v>0.9583933970546216</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2.65136683754638</v>
+        <v>0.9750752947787003</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4.919149019091581</v>
+        <v>1.593135551945016</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>3.322146918630371</v>
+        <v>1.200611236170531</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>3.539839481957958</v>
+        <v>1.264081382037936</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2.978306895644174</v>
+        <v>1.09135498323153</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>3.665743612123725</v>
+        <v>1.299031210289812</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>4.118067016355094</v>
+        <v>1.415383882478786</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>3.699102079670697</v>
+        <v>1.308090109028257</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>3.591480943567036</v>
+        <v>1.278564636537029</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2.681421688483532</v>
+        <v>0.9863471346450161</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>3.647309737840444</v>
+        <v>1.29398983770761</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>3.484893938637397</v>
+        <v>1.248437610072873</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>4.150523446997902</v>
+        <v>1.423234458095383</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>3.609709899112628</v>
+        <v>1.28362740875911</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2.51932896833973</v>
+        <v>0.9239925836590082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>3.687056469011135</v>
+        <v>1.304828434841568</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2.754798200211547</v>
+        <v>1.013344191360019</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>4.207269490689817</v>
+        <v>1.436813860243922</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>3.656186155652314</v>
+        <v>1.296420570143641</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>5.7080402945961</v>
+        <v>1.741875758909242</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2.642268354349291</v>
+        <v>0.971637773367928</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2.625921621524737</v>
+        <v>0.9654319283387267</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>2.612348389659889</v>
+        <v>0.9602495829408978</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>3.064426739748488</v>
+        <v>1.119860517555263</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>5.496239384526737</v>
+        <v>1.704064110108104</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3.782213212681263</v>
+        <v>1.33030934429007</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>1.959464718904604</v>
+        <v>0.6726713333434279</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>3.275787769942471</v>
+        <v>1.186558380602451</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3.745783097423464</v>
+        <v>1.320630699895796</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1.489640934318389</v>
+        <v>0.3985351072372018</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4.217839449628165</v>
+        <v>1.439323018180946</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>5.72418491917407</v>
+        <v>1.744700167107751</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>4.186692748535647</v>
+        <v>1.431911102098314</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4.976395698067938</v>
+        <v>1.60470587359113</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>3.191621482712807</v>
+        <v>1.160529089446007</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>4.033826463265554</v>
+        <v>1.394715420080557</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>3.587098175457623</v>
+        <v>1.277343567971424</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>3.691574849072623</v>
+        <v>1.30605315537075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2.957114670953328</v>
+        <v>1.084214019608908</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>2.61920792214071</v>
+        <v>0.962871952271542</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>3.040868532010132</v>
+        <v>1.112143175932403</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>4.01113190648849</v>
+        <v>1.389073472432291</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>5.449116443412637</v>
+        <v>1.695453475057463</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>4.760722134328216</v>
+        <v>1.560399365629181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>4.278357092242738</v>
+        <v>1.453569078949135</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>3.714366498943337</v>
+        <v>1.312208138445161</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>3.986543157596581</v>
+        <v>1.382924478838495</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>5.816702929535777</v>
+        <v>1.760733594265038</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>4.15250956092703</v>
+        <v>1.423712864953482</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2.588253339336453</v>
+        <v>0.9509832618540974</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>4.90829423878745</v>
+        <v>1.590926475904873</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3.315925813760587</v>
+        <v>1.198736864815485</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>3.418523380873872</v>
+        <v>1.229208697860937</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>4.478650439101072</v>
+        <v>1.499321759772545</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>4.428815689971398</v>
+        <v>1.488132209708801</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>5.461462846884182</v>
+        <v>1.697716674547238</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>2.988458590657185</v>
+        <v>1.094757732956354</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3.419440696634741</v>
+        <v>1.229476998704864</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3.706878977886729</v>
+        <v>1.310190276720844</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3.65132773309605</v>
+        <v>1.295090863940934</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>3.28008194653524</v>
+        <v>1.187868405783733</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>4.1878690715375</v>
+        <v>1.43219202975396</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>3.615033277145613</v>
+        <v>1.285101060864518</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3.793652524305171</v>
+        <v>1.333329281737471</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>2.906009270826026</v>
+        <v>1.066780755379075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>2.898662233460566</v>
+        <v>1.0642493317547</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>2.898662233460566</v>
+        <v>1.0642493317547</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>3.745783097423464</v>
+        <v>1.320630699895796</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3.984730516998706</v>
+        <v>1.382469685613945</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>3.28694791666735</v>
+        <v>1.189959449307792</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>3.10017503036091</v>
+        <v>1.131458571303961</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>3.782523654973498</v>
+        <v>1.330391420454209</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3.320232107623856</v>
+        <v>1.200034692419568</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>4.907112878241309</v>
+        <v>1.590685760356805</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>3.692408688167432</v>
+        <v>1.306279006117613</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>3.315248647305011</v>
+        <v>1.198532627553472</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3.417815575381814</v>
+        <v>1.229001626356988</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>3.568478059376749</v>
+        <v>1.272139190993872</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3.209114412476056</v>
+        <v>1.165995015115098</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>4.915412845808926</v>
+        <v>1.592375747184271</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>3.422788037429468</v>
+        <v>1.23045543458939</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>3.355555361901345</v>
+        <v>1.210617289333083</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>4.178562289578681</v>
+        <v>1.429967237510785</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>5.664214632750511</v>
+        <v>1.734168249873754</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>3.497055246625211</v>
+        <v>1.2519212562479</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>2.660134845113467</v>
+        <v>0.9783768151604073</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>3.319025238978161</v>
+        <v>1.19967113710126</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3.059198700107313</v>
+        <v>1.118153018962235</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3.667253000538098</v>
+        <v>1.299442880583805</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3.094624939022055</v>
+        <v>1.129666715924843</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>2.937340330078739</v>
+        <v>1.077504522275076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>5.495384366225682</v>
+        <v>1.703908533767034</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>3.762643495828875</v>
+        <v>1.325121767774022</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>3.585295489166757</v>
+        <v>1.27684089441135</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>2.592843349327829</v>
+        <v>0.9527550918229281</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>3.530453384461424</v>
+        <v>1.261426300222295</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>2.634616977465053</v>
+        <v>0.9687378118317904</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>4.303014010611655</v>
+        <v>1.459315709861307</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>5.413751931676683</v>
+        <v>1.688942370355998</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>3.143104182736366</v>
+        <v>1.145210904811836</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>3.489780640629311</v>
+        <v>1.249838880551083</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>4.531534744602277</v>
+        <v>1.511060677834575</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>3.040659224824976</v>
+        <v>1.112074342180883</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>2.787005971448859</v>
+        <v>1.024967891105646</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>2.597611730791097</v>
+        <v>0.9545924578076573</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>3.127901702338698</v>
+        <v>1.14036239710575</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>2.658885305344494</v>
+        <v>0.9779069768230394</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1.513141978705477</v>
+        <v>0.4141882696008717</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>3.547770459333335</v>
+        <v>1.266319366563414</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>3.585750336215074</v>
+        <v>1.276967750956407</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>3.023014906931659</v>
+        <v>1.106254646956734</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>5.427244427383135</v>
+        <v>1.691431533201574</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>4.742570660268941</v>
+        <v>1.556579322087454</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>3.657267801888358</v>
+        <v>1.296716366425455</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>5.981015164616304</v>
+        <v>1.788590313524229</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>5.174168382440834</v>
+        <v>1.643678627192708</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>

--- a/src/results/kl_content_vs_domain.xlsx
+++ b/src/results/kl_content_vs_domain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F481"/>
+  <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>n_comments</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>engagement</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -490,6 +495,9 @@
       <c r="F2" t="n">
         <v>1</v>
       </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -516,6 +524,9 @@
       <c r="F3" t="n">
         <v>1</v>
       </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,6 +553,9 @@
       <c r="F4" t="n">
         <v>3</v>
       </c>
+      <c r="G4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -568,6 +582,9 @@
       <c r="F5" t="n">
         <v>7</v>
       </c>
+      <c r="G5" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +611,9 @@
       <c r="F6" t="n">
         <v>4</v>
       </c>
+      <c r="G6" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -620,6 +640,9 @@
       <c r="F7" t="n">
         <v>2</v>
       </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -646,6 +669,9 @@
       <c r="F8" t="n">
         <v>2</v>
       </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -672,6 +698,9 @@
       <c r="F9" t="n">
         <v>12</v>
       </c>
+      <c r="G9" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -698,6 +727,9 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -724,6 +756,9 @@
       <c r="F11" t="n">
         <v>3</v>
       </c>
+      <c r="G11" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -750,6 +785,9 @@
       <c r="F12" t="n">
         <v>5</v>
       </c>
+      <c r="G12" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -776,6 +814,9 @@
       <c r="F13" t="n">
         <v>6</v>
       </c>
+      <c r="G13" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -802,6 +843,9 @@
       <c r="F14" t="n">
         <v>13</v>
       </c>
+      <c r="G14" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -828,6 +872,9 @@
       <c r="F15" t="n">
         <v>4</v>
       </c>
+      <c r="G15" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -837,11 +884,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.280159219646041</v>
+        <v>1.111811619926812</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -854,6 +901,9 @@
       <c r="F16" t="n">
         <v>1</v>
       </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -863,11 +913,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.111811619926812</v>
+        <v>1.280159219646041</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -880,6 +930,9 @@
       <c r="F17" t="n">
         <v>1</v>
       </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -906,6 +959,9 @@
       <c r="F18" t="n">
         <v>1</v>
       </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -932,6 +988,9 @@
       <c r="F19" t="n">
         <v>8</v>
       </c>
+      <c r="G19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -958,6 +1017,9 @@
       <c r="F20" t="n">
         <v>12</v>
       </c>
+      <c r="G20" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -984,6 +1046,9 @@
       <c r="F21" t="n">
         <v>9</v>
       </c>
+      <c r="G21" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1010,6 +1075,9 @@
       <c r="F22" t="n">
         <v>9</v>
       </c>
+      <c r="G22" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1036,6 +1104,9 @@
       <c r="F23" t="n">
         <v>9</v>
       </c>
+      <c r="G23" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1062,6 +1133,9 @@
       <c r="F24" t="n">
         <v>10</v>
       </c>
+      <c r="G24" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1088,6 +1162,9 @@
       <c r="F25" t="n">
         <v>7</v>
       </c>
+      <c r="G25" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1114,6 +1191,9 @@
       <c r="F26" t="n">
         <v>10</v>
       </c>
+      <c r="G26" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1140,6 +1220,9 @@
       <c r="F27" t="n">
         <v>10</v>
       </c>
+      <c r="G27" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1166,6 +1249,9 @@
       <c r="F28" t="n">
         <v>12</v>
       </c>
+      <c r="G28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1192,6 +1278,9 @@
       <c r="F29" t="n">
         <v>9</v>
       </c>
+      <c r="G29" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1201,11 +1290,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.181562038716343</v>
+        <v>1.211795112379611</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1218,6 +1307,9 @@
       <c r="F30" t="n">
         <v>7</v>
       </c>
+      <c r="G30" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1227,11 +1319,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.211795112379611</v>
+        <v>1.181562038716343</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1244,6 +1336,9 @@
       <c r="F31" t="n">
         <v>7</v>
       </c>
+      <c r="G31" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1270,6 +1365,9 @@
       <c r="F32" t="n">
         <v>3</v>
       </c>
+      <c r="G32" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1296,6 +1394,9 @@
       <c r="F33" t="n">
         <v>9</v>
       </c>
+      <c r="G33" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1322,6 +1423,9 @@
       <c r="F34" t="n">
         <v>15</v>
       </c>
+      <c r="G34" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1348,6 +1452,9 @@
       <c r="F35" t="n">
         <v>13</v>
       </c>
+      <c r="G35" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1374,6 +1481,9 @@
       <c r="F36" t="n">
         <v>13</v>
       </c>
+      <c r="G36" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1400,6 +1510,9 @@
       <c r="F37" t="n">
         <v>16</v>
       </c>
+      <c r="G37" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1426,6 +1539,9 @@
       <c r="F38" t="n">
         <v>19</v>
       </c>
+      <c r="G38" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1452,6 +1568,9 @@
       <c r="F39" t="n">
         <v>23</v>
       </c>
+      <c r="G39" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1478,6 +1597,9 @@
       <c r="F40" t="n">
         <v>15</v>
       </c>
+      <c r="G40" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1504,6 +1626,9 @@
       <c r="F41" t="n">
         <v>8</v>
       </c>
+      <c r="G41" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1530,6 +1655,9 @@
       <c r="F42" t="n">
         <v>6</v>
       </c>
+      <c r="G42" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1556,6 +1684,9 @@
       <c r="F43" t="n">
         <v>18</v>
       </c>
+      <c r="G43" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1582,6 +1713,9 @@
       <c r="F44" t="n">
         <v>16</v>
       </c>
+      <c r="G44" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1608,6 +1742,9 @@
       <c r="F45" t="n">
         <v>10</v>
       </c>
+      <c r="G45" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1634,6 +1771,9 @@
       <c r="F46" t="n">
         <v>16</v>
       </c>
+      <c r="G46" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1660,6 +1800,9 @@
       <c r="F47" t="n">
         <v>16</v>
       </c>
+      <c r="G47" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1686,6 +1829,9 @@
       <c r="F48" t="n">
         <v>7</v>
       </c>
+      <c r="G48" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1712,6 +1858,9 @@
       <c r="F49" t="n">
         <v>7</v>
       </c>
+      <c r="G49" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1738,6 +1887,9 @@
       <c r="F50" t="n">
         <v>17</v>
       </c>
+      <c r="G50" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1764,6 +1916,9 @@
       <c r="F51" t="n">
         <v>11</v>
       </c>
+      <c r="G51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1790,6 +1945,9 @@
       <c r="F52" t="n">
         <v>4</v>
       </c>
+      <c r="G52" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1816,6 +1974,9 @@
       <c r="F53" t="n">
         <v>7</v>
       </c>
+      <c r="G53" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1842,6 +2003,9 @@
       <c r="F54" t="n">
         <v>25</v>
       </c>
+      <c r="G54" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1868,6 +2032,9 @@
       <c r="F55" t="n">
         <v>20</v>
       </c>
+      <c r="G55" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1894,6 +2061,9 @@
       <c r="F56" t="n">
         <v>5</v>
       </c>
+      <c r="G56" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1920,6 +2090,9 @@
       <c r="F57" t="n">
         <v>5</v>
       </c>
+      <c r="G57" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1946,6 +2119,9 @@
       <c r="F58" t="n">
         <v>13</v>
       </c>
+      <c r="G58" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1972,6 +2148,9 @@
       <c r="F59" t="n">
         <v>4</v>
       </c>
+      <c r="G59" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1998,6 +2177,9 @@
       <c r="F60" t="n">
         <v>12</v>
       </c>
+      <c r="G60" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2007,11 +2189,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.278764198178463</v>
+        <v>1.110520148269725</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2024,6 +2206,9 @@
       <c r="F61" t="n">
         <v>6</v>
       </c>
+      <c r="G61" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2033,11 +2218,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.110520148269725</v>
+        <v>1.278764198178463</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2050,6 +2235,9 @@
       <c r="F62" t="n">
         <v>6</v>
       </c>
+      <c r="G62" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2076,6 +2264,9 @@
       <c r="F63" t="n">
         <v>6</v>
       </c>
+      <c r="G63" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2102,6 +2293,9 @@
       <c r="F64" t="n">
         <v>6</v>
       </c>
+      <c r="G64" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2128,6 +2322,9 @@
       <c r="F65" t="n">
         <v>6</v>
       </c>
+      <c r="G65" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2154,6 +2351,9 @@
       <c r="F66" t="n">
         <v>15</v>
       </c>
+      <c r="G66" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2180,6 +2380,9 @@
       <c r="F67" t="n">
         <v>15</v>
       </c>
+      <c r="G67" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2206,6 +2409,9 @@
       <c r="F68" t="n">
         <v>15</v>
       </c>
+      <c r="G68" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2232,6 +2438,9 @@
       <c r="F69" t="n">
         <v>3</v>
       </c>
+      <c r="G69" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2258,6 +2467,9 @@
       <c r="F70" t="n">
         <v>3</v>
       </c>
+      <c r="G70" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2284,6 +2496,9 @@
       <c r="F71" t="n">
         <v>3</v>
       </c>
+      <c r="G71" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2310,6 +2525,9 @@
       <c r="F72" t="n">
         <v>12</v>
       </c>
+      <c r="G72" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2336,6 +2554,9 @@
       <c r="F73" t="n">
         <v>6</v>
       </c>
+      <c r="G73" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2362,6 +2583,9 @@
       <c r="F74" t="n">
         <v>6</v>
       </c>
+      <c r="G74" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2388,6 +2612,9 @@
       <c r="F75" t="n">
         <v>13</v>
       </c>
+      <c r="G75" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2414,6 +2641,9 @@
       <c r="F76" t="n">
         <v>24</v>
       </c>
+      <c r="G76" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2440,6 +2670,9 @@
       <c r="F77" t="n">
         <v>24</v>
       </c>
+      <c r="G77" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2466,6 +2699,9 @@
       <c r="F78" t="n">
         <v>4</v>
       </c>
+      <c r="G78" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2492,6 +2728,9 @@
       <c r="F79" t="n">
         <v>8</v>
       </c>
+      <c r="G79" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2518,6 +2757,9 @@
       <c r="F80" t="n">
         <v>16</v>
       </c>
+      <c r="G80" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2527,11 +2769,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.286886989523065</v>
+        <v>1.1800494104157</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2544,6 +2786,9 @@
       <c r="F81" t="n">
         <v>4</v>
       </c>
+      <c r="G81" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2553,11 +2798,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.1800494104157</v>
+        <v>1.286886989523065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2570,6 +2815,9 @@
       <c r="F82" t="n">
         <v>4</v>
       </c>
+      <c r="G82" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2596,6 +2844,9 @@
       <c r="F83" t="n">
         <v>4</v>
       </c>
+      <c r="G83" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2622,6 +2873,9 @@
       <c r="F84" t="n">
         <v>5</v>
       </c>
+      <c r="G84" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2648,6 +2902,9 @@
       <c r="F85" t="n">
         <v>6</v>
       </c>
+      <c r="G85" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2674,6 +2931,9 @@
       <c r="F86" t="n">
         <v>10</v>
       </c>
+      <c r="G86" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2700,6 +2960,9 @@
       <c r="F87" t="n">
         <v>6</v>
       </c>
+      <c r="G87" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2726,6 +2989,9 @@
       <c r="F88" t="n">
         <v>4</v>
       </c>
+      <c r="G88" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2752,6 +3018,9 @@
       <c r="F89" t="n">
         <v>7</v>
       </c>
+      <c r="G89" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2778,6 +3047,9 @@
       <c r="F90" t="n">
         <v>19</v>
       </c>
+      <c r="G90" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2804,6 +3076,9 @@
       <c r="F91" t="n">
         <v>12</v>
       </c>
+      <c r="G91" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2830,6 +3105,9 @@
       <c r="F92" t="n">
         <v>12</v>
       </c>
+      <c r="G92" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2856,6 +3134,9 @@
       <c r="F93" t="n">
         <v>11</v>
       </c>
+      <c r="G93" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2882,6 +3163,9 @@
       <c r="F94" t="n">
         <v>6</v>
       </c>
+      <c r="G94" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2908,6 +3192,9 @@
       <c r="F95" t="n">
         <v>7</v>
       </c>
+      <c r="G95" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2934,6 +3221,9 @@
       <c r="F96" t="n">
         <v>7</v>
       </c>
+      <c r="G96" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2960,6 +3250,9 @@
       <c r="F97" t="n">
         <v>10</v>
       </c>
+      <c r="G97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2987,6 +3280,9 @@
       <c r="F98" t="n">
         <v>12</v>
       </c>
+      <c r="G98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3013,6 +3309,9 @@
       <c r="F99" t="n">
         <v>13</v>
       </c>
+      <c r="G99" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3039,6 +3338,9 @@
       <c r="F100" t="n">
         <v>26</v>
       </c>
+      <c r="G100" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3048,11 +3350,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1.28348739099033</v>
+        <v>1.176809478201871</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3065,6 +3367,9 @@
       <c r="F101" t="n">
         <v>6</v>
       </c>
+      <c r="G101" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3074,11 +3379,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.176809478201871</v>
+        <v>1.28348739099033</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3091,6 +3396,9 @@
       <c r="F102" t="n">
         <v>6</v>
       </c>
+      <c r="G102" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3117,6 +3425,9 @@
       <c r="F103" t="n">
         <v>6</v>
       </c>
+      <c r="G103" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3143,6 +3454,9 @@
       <c r="F104" t="n">
         <v>36</v>
       </c>
+      <c r="G104" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3169,6 +3483,9 @@
       <c r="F105" t="n">
         <v>16</v>
       </c>
+      <c r="G105" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3195,6 +3512,9 @@
       <c r="F106" t="n">
         <v>9</v>
       </c>
+      <c r="G106" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3204,11 +3524,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Banking</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.694631898032067</v>
+        <v>1.093504007017626</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3221,6 +3541,9 @@
       <c r="F107" t="n">
         <v>9</v>
       </c>
+      <c r="G107" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3230,11 +3553,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Banking</t>
+          <t>Cloud Computing</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1.093504007017626</v>
+        <v>0.4016982448820808</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3247,6 +3570,9 @@
       <c r="F108" t="n">
         <v>9</v>
       </c>
+      <c r="G108" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3256,11 +3582,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cloud Computing</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.4016982448820808</v>
+        <v>1.694631898032067</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3273,6 +3599,9 @@
       <c r="F109" t="n">
         <v>9</v>
       </c>
+      <c r="G109" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3299,6 +3628,9 @@
       <c r="F110" t="n">
         <v>25</v>
       </c>
+      <c r="G110" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3325,6 +3657,9 @@
       <c r="F111" t="n">
         <v>8</v>
       </c>
+      <c r="G111" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3351,6 +3686,9 @@
       <c r="F112" t="n">
         <v>14</v>
       </c>
+      <c r="G112" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3377,6 +3715,9 @@
       <c r="F113" t="n">
         <v>18</v>
       </c>
+      <c r="G113" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3403,6 +3744,9 @@
       <c r="F114" t="n">
         <v>5</v>
       </c>
+      <c r="G114" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3429,6 +3773,9 @@
       <c r="F115" t="n">
         <v>3</v>
       </c>
+      <c r="G115" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3455,6 +3802,9 @@
       <c r="F116" t="n">
         <v>5</v>
       </c>
+      <c r="G116" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3481,6 +3831,9 @@
       <c r="F117" t="n">
         <v>2</v>
       </c>
+      <c r="G117" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3507,6 +3860,9 @@
       <c r="F118" t="n">
         <v>2</v>
       </c>
+      <c r="G118" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3533,6 +3889,9 @@
       <c r="F119" t="n">
         <v>17</v>
       </c>
+      <c r="G119" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3559,6 +3918,9 @@
       <c r="F120" t="n">
         <v>46</v>
       </c>
+      <c r="G120" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3585,6 +3947,9 @@
       <c r="F121" t="n">
         <v>46</v>
       </c>
+      <c r="G121" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3611,6 +3976,9 @@
       <c r="F122" t="n">
         <v>46</v>
       </c>
+      <c r="G122" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3620,11 +3988,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.286055912144546</v>
+        <v>1.783406641783279</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3637,6 +4005,9 @@
       <c r="F123" t="n">
         <v>6</v>
       </c>
+      <c r="G123" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3646,11 +4017,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1.783406641783279</v>
+        <v>1.286055912144546</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3663,6 +4034,9 @@
       <c r="F124" t="n">
         <v>6</v>
       </c>
+      <c r="G124" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3689,6 +4063,9 @@
       <c r="F125" t="n">
         <v>6</v>
       </c>
+      <c r="G125" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3715,6 +4092,9 @@
       <c r="F126" t="n">
         <v>11</v>
       </c>
+      <c r="G126" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3741,6 +4121,9 @@
       <c r="F127" t="n">
         <v>6</v>
       </c>
+      <c r="G127" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3767,6 +4150,9 @@
       <c r="F128" t="n">
         <v>30</v>
       </c>
+      <c r="G128" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3793,6 +4179,9 @@
       <c r="F129" t="n">
         <v>17</v>
       </c>
+      <c r="G129" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3819,6 +4208,9 @@
       <c r="F130" t="n">
         <v>10</v>
       </c>
+      <c r="G130" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3845,6 +4237,9 @@
       <c r="F131" t="n">
         <v>49</v>
       </c>
+      <c r="G131" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3871,6 +4266,9 @@
       <c r="F132" t="n">
         <v>49</v>
       </c>
+      <c r="G132" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3897,6 +4295,9 @@
       <c r="F133" t="n">
         <v>15</v>
       </c>
+      <c r="G133" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3923,6 +4324,9 @@
       <c r="F134" t="n">
         <v>28</v>
       </c>
+      <c r="G134" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3949,6 +4353,9 @@
       <c r="F135" t="n">
         <v>13</v>
       </c>
+      <c r="G135" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3975,6 +4382,9 @@
       <c r="F136" t="n">
         <v>41</v>
       </c>
+      <c r="G136" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4001,6 +4411,9 @@
       <c r="F137" t="n">
         <v>13</v>
       </c>
+      <c r="G137" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4027,6 +4440,9 @@
       <c r="F138" t="n">
         <v>12</v>
       </c>
+      <c r="G138" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4036,11 +4452,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1.282475810641251</v>
+        <v>1.175845428019293</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4053,6 +4469,9 @@
       <c r="F139" t="n">
         <v>10</v>
       </c>
+      <c r="G139" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4062,11 +4481,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.175845428019293</v>
+        <v>1.282475810641251</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4079,6 +4498,9 @@
       <c r="F140" t="n">
         <v>10</v>
       </c>
+      <c r="G140" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4105,6 +4527,9 @@
       <c r="F141" t="n">
         <v>10</v>
       </c>
+      <c r="G141" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4131,6 +4556,9 @@
       <c r="F142" t="n">
         <v>15</v>
       </c>
+      <c r="G142" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4157,6 +4585,9 @@
       <c r="F143" t="n">
         <v>14</v>
       </c>
+      <c r="G143" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4183,6 +4614,9 @@
       <c r="F144" t="n">
         <v>14</v>
       </c>
+      <c r="G144" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4192,11 +4626,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1.286124808973367</v>
+        <v>1.179323017588604</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4209,6 +4643,9 @@
       <c r="F145" t="n">
         <v>8</v>
       </c>
+      <c r="G145" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4218,11 +4655,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1.179323017588604</v>
+        <v>1.286124808973367</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4235,6 +4672,9 @@
       <c r="F146" t="n">
         <v>8</v>
       </c>
+      <c r="G146" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4261,6 +4701,9 @@
       <c r="F147" t="n">
         <v>8</v>
       </c>
+      <c r="G147" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4287,6 +4730,9 @@
       <c r="F148" t="n">
         <v>14</v>
       </c>
+      <c r="G148" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4313,6 +4759,9 @@
       <c r="F149" t="n">
         <v>11</v>
       </c>
+      <c r="G149" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4339,6 +4788,9 @@
       <c r="F150" t="n">
         <v>21</v>
       </c>
+      <c r="G150" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4365,6 +4817,9 @@
       <c r="F151" t="n">
         <v>17</v>
       </c>
+      <c r="G151" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4391,6 +4846,9 @@
       <c r="F152" t="n">
         <v>19</v>
       </c>
+      <c r="G152" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4417,6 +4875,9 @@
       <c r="F153" t="n">
         <v>6</v>
       </c>
+      <c r="G153" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4444,6 +4905,9 @@
       <c r="F154" t="n">
         <v>26</v>
       </c>
+      <c r="G154" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4453,11 +4917,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.286570370102776</v>
+        <v>1.78403369632228</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4470,6 +4934,9 @@
       <c r="F155" t="n">
         <v>8</v>
       </c>
+      <c r="G155" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4479,11 +4946,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.78403369632228</v>
+        <v>1.286570370102776</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4496,6 +4963,9 @@
       <c r="F156" t="n">
         <v>8</v>
       </c>
+      <c r="G156" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4522,6 +4992,9 @@
       <c r="F157" t="n">
         <v>8</v>
       </c>
+      <c r="G157" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4548,6 +5021,9 @@
       <c r="F158" t="n">
         <v>9</v>
       </c>
+      <c r="G158" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4574,6 +5050,9 @@
       <c r="F159" t="n">
         <v>6</v>
       </c>
+      <c r="G159" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4600,6 +5079,9 @@
       <c r="F160" t="n">
         <v>6</v>
       </c>
+      <c r="G160" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4626,6 +5108,9 @@
       <c r="F161" t="n">
         <v>11</v>
       </c>
+      <c r="G161" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4652,6 +5137,9 @@
       <c r="F162" t="n">
         <v>22</v>
       </c>
+      <c r="G162" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4661,11 +5149,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1.28283689613743</v>
+        <v>1.114290615233317</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4678,6 +5166,9 @@
       <c r="F163" t="n">
         <v>6</v>
       </c>
+      <c r="G163" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4687,11 +5178,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.114290615233317</v>
+        <v>1.28283689613743</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4704,6 +5195,9 @@
       <c r="F164" t="n">
         <v>6</v>
       </c>
+      <c r="G164" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4730,6 +5224,9 @@
       <c r="F165" t="n">
         <v>6</v>
       </c>
+      <c r="G165" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4756,6 +5253,9 @@
       <c r="F166" t="n">
         <v>21</v>
       </c>
+      <c r="G166" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4782,6 +5282,9 @@
       <c r="F167" t="n">
         <v>21</v>
       </c>
+      <c r="G167" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4808,6 +5311,9 @@
       <c r="F168" t="n">
         <v>21</v>
       </c>
+      <c r="G168" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4834,6 +5340,9 @@
       <c r="F169" t="n">
         <v>5</v>
       </c>
+      <c r="G169" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4860,6 +5369,9 @@
       <c r="F170" t="n">
         <v>19</v>
       </c>
+      <c r="G170" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4886,6 +5398,9 @@
       <c r="F171" t="n">
         <v>19</v>
       </c>
+      <c r="G171" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4913,6 +5428,9 @@
       <c r="F172" t="n">
         <v>28</v>
       </c>
+      <c r="G172" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4940,6 +5458,9 @@
       <c r="F173" t="n">
         <v>18</v>
       </c>
+      <c r="G173" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4966,6 +5487,9 @@
       <c r="F174" t="n">
         <v>39</v>
       </c>
+      <c r="G174" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4992,6 +5516,9 @@
       <c r="F175" t="n">
         <v>14</v>
       </c>
+      <c r="G175" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5018,6 +5545,9 @@
       <c r="F176" t="n">
         <v>13</v>
       </c>
+      <c r="G176" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5044,6 +5574,9 @@
       <c r="F177" t="n">
         <v>14</v>
       </c>
+      <c r="G177" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5070,6 +5603,9 @@
       <c r="F178" t="n">
         <v>11</v>
       </c>
+      <c r="G178" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5096,6 +5632,9 @@
       <c r="F179" t="n">
         <v>17</v>
       </c>
+      <c r="G179" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5105,11 +5644,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1.286027210559761</v>
+        <v>1.783371658114836</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -5122,6 +5661,9 @@
       <c r="F180" t="n">
         <v>10</v>
       </c>
+      <c r="G180" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5131,11 +5673,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1.783371658114836</v>
+        <v>1.286027210559761</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -5148,6 +5690,9 @@
       <c r="F181" t="n">
         <v>10</v>
       </c>
+      <c r="G181" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5174,6 +5719,9 @@
       <c r="F182" t="n">
         <v>10</v>
       </c>
+      <c r="G182" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5200,6 +5748,9 @@
       <c r="F183" t="n">
         <v>8</v>
       </c>
+      <c r="G183" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5226,6 +5777,9 @@
       <c r="F184" t="n">
         <v>20</v>
       </c>
+      <c r="G184" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5252,6 +5806,9 @@
       <c r="F185" t="n">
         <v>7</v>
       </c>
+      <c r="G185" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5278,6 +5835,9 @@
       <c r="F186" t="n">
         <v>7</v>
       </c>
+      <c r="G186" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5304,6 +5864,9 @@
       <c r="F187" t="n">
         <v>7</v>
       </c>
+      <c r="G187" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5330,6 +5893,9 @@
       <c r="F188" t="n">
         <v>8</v>
       </c>
+      <c r="G188" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5356,6 +5922,9 @@
       <c r="F189" t="n">
         <v>10</v>
       </c>
+      <c r="G189" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5365,11 +5934,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1.55513094391749</v>
+        <v>0.4019769812935054</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5382,6 +5951,9 @@
       <c r="F190" t="n">
         <v>10</v>
       </c>
+      <c r="G190" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5391,11 +5963,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.4019769812935054</v>
+        <v>1.55513094391749</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5408,6 +5980,9 @@
       <c r="F191" t="n">
         <v>10</v>
       </c>
+      <c r="G191" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5434,6 +6009,9 @@
       <c r="F192" t="n">
         <v>11</v>
       </c>
+      <c r="G192" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5460,6 +6038,9 @@
       <c r="F193" t="n">
         <v>10</v>
       </c>
+      <c r="G193" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5486,6 +6067,9 @@
       <c r="F194" t="n">
         <v>15</v>
       </c>
+      <c r="G194" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5512,6 +6096,9 @@
       <c r="F195" t="n">
         <v>20</v>
       </c>
+      <c r="G195" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5538,6 +6125,9 @@
       <c r="F196" t="n">
         <v>13</v>
       </c>
+      <c r="G196" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5564,6 +6154,9 @@
       <c r="F197" t="n">
         <v>4</v>
       </c>
+      <c r="G197" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5590,6 +6183,9 @@
       <c r="F198" t="n">
         <v>30</v>
       </c>
+      <c r="G198" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5616,6 +6212,9 @@
       <c r="F199" t="n">
         <v>13</v>
       </c>
+      <c r="G199" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5642,6 +6241,9 @@
       <c r="F200" t="n">
         <v>11</v>
       </c>
+      <c r="G200" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5668,6 +6270,9 @@
       <c r="F201" t="n">
         <v>12</v>
       </c>
+      <c r="G201" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5694,6 +6299,9 @@
       <c r="F202" t="n">
         <v>30</v>
       </c>
+      <c r="G202" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5720,6 +6328,9 @@
       <c r="F203" t="n">
         <v>18</v>
       </c>
+      <c r="G203" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5746,6 +6357,9 @@
       <c r="F204" t="n">
         <v>14</v>
       </c>
+      <c r="G204" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5772,6 +6386,9 @@
       <c r="F205" t="n">
         <v>8</v>
       </c>
+      <c r="G205" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5798,6 +6415,9 @@
       <c r="F206" t="n">
         <v>8</v>
       </c>
+      <c r="G206" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5824,6 +6444,9 @@
       <c r="F207" t="n">
         <v>12</v>
       </c>
+      <c r="G207" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5850,6 +6473,9 @@
       <c r="F208" t="n">
         <v>10</v>
       </c>
+      <c r="G208" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5876,6 +6502,9 @@
       <c r="F209" t="n">
         <v>18</v>
       </c>
+      <c r="G209" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5902,6 +6531,9 @@
       <c r="F210" t="n">
         <v>9</v>
       </c>
+      <c r="G210" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5928,6 +6560,9 @@
       <c r="F211" t="n">
         <v>19</v>
       </c>
+      <c r="G211" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5954,6 +6589,9 @@
       <c r="F212" t="n">
         <v>10</v>
       </c>
+      <c r="G212" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5980,6 +6618,9 @@
       <c r="F213" t="n">
         <v>1</v>
       </c>
+      <c r="G213" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6006,6 +6647,9 @@
       <c r="F214" t="n">
         <v>24</v>
       </c>
+      <c r="G214" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6032,6 +6676,9 @@
       <c r="F215" t="n">
         <v>24</v>
       </c>
+      <c r="G215" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6058,6 +6705,9 @@
       <c r="F216" t="n">
         <v>16</v>
       </c>
+      <c r="G216" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6084,6 +6734,9 @@
       <c r="F217" t="n">
         <v>1</v>
       </c>
+      <c r="G217" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6110,6 +6763,9 @@
       <c r="F218" t="n">
         <v>1</v>
       </c>
+      <c r="G218" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6136,6 +6792,9 @@
       <c r="F219" t="n">
         <v>3</v>
       </c>
+      <c r="G219" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6162,6 +6821,9 @@
       <c r="F220" t="n">
         <v>11</v>
       </c>
+      <c r="G220" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6188,6 +6850,9 @@
       <c r="F221" t="n">
         <v>1</v>
       </c>
+      <c r="G221" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6214,6 +6879,9 @@
       <c r="F222" t="n">
         <v>1</v>
       </c>
+      <c r="G222" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6240,6 +6908,9 @@
       <c r="F223" t="n">
         <v>1</v>
       </c>
+      <c r="G223" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6266,6 +6937,9 @@
       <c r="F224" t="n">
         <v>1</v>
       </c>
+      <c r="G224" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6292,6 +6966,9 @@
       <c r="F225" t="n">
         <v>1</v>
       </c>
+      <c r="G225" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6318,6 +6995,9 @@
       <c r="F226" t="n">
         <v>1</v>
       </c>
+      <c r="G226" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6344,6 +7024,9 @@
       <c r="F227" t="n">
         <v>1</v>
       </c>
+      <c r="G227" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6370,6 +7053,9 @@
       <c r="F228" t="n">
         <v>3</v>
       </c>
+      <c r="G228" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6391,11 +7077,14 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F229" t="n">
         <v>1</v>
       </c>
+      <c r="G229" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6417,11 +7106,14 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F230" t="n">
         <v>1</v>
       </c>
+      <c r="G230" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6448,6 +7140,9 @@
       <c r="F231" t="n">
         <v>1</v>
       </c>
+      <c r="G231" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6474,6 +7169,9 @@
       <c r="F232" t="n">
         <v>2</v>
       </c>
+      <c r="G232" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6500,6 +7198,9 @@
       <c r="F233" t="n">
         <v>1</v>
       </c>
+      <c r="G233" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6526,6 +7227,9 @@
       <c r="F234" t="n">
         <v>2</v>
       </c>
+      <c r="G234" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6552,6 +7256,9 @@
       <c r="F235" t="n">
         <v>3</v>
       </c>
+      <c r="G235" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6578,6 +7285,9 @@
       <c r="F236" t="n">
         <v>2</v>
       </c>
+      <c r="G236" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6604,6 +7314,9 @@
       <c r="F237" t="n">
         <v>25</v>
       </c>
+      <c r="G237" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6630,6 +7343,9 @@
       <c r="F238" t="n">
         <v>5</v>
       </c>
+      <c r="G238" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6656,6 +7372,9 @@
       <c r="F239" t="n">
         <v>0</v>
       </c>
+      <c r="G239" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6682,6 +7401,9 @@
       <c r="F240" t="n">
         <v>2</v>
       </c>
+      <c r="G240" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6708,6 +7430,9 @@
       <c r="F241" t="n">
         <v>1</v>
       </c>
+      <c r="G241" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6734,6 +7459,9 @@
       <c r="F242" t="n">
         <v>5</v>
       </c>
+      <c r="G242" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6760,6 +7488,9 @@
       <c r="F243" t="n">
         <v>2</v>
       </c>
+      <c r="G243" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6786,6 +7517,9 @@
       <c r="F244" t="n">
         <v>1</v>
       </c>
+      <c r="G244" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -6812,6 +7546,9 @@
       <c r="F245" t="n">
         <v>0</v>
       </c>
+      <c r="G245" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -6838,6 +7575,9 @@
       <c r="F246" t="n">
         <v>1</v>
       </c>
+      <c r="G246" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6864,6 +7604,9 @@
       <c r="F247" t="n">
         <v>0</v>
       </c>
+      <c r="G247" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6885,11 +7628,14 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F248" t="n">
         <v>2</v>
       </c>
+      <c r="G248" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -6916,6 +7662,9 @@
       <c r="F249" t="n">
         <v>1</v>
       </c>
+      <c r="G249" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -6942,6 +7691,9 @@
       <c r="F250" t="n">
         <v>0</v>
       </c>
+      <c r="G250" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -6968,6 +7720,9 @@
       <c r="F251" t="n">
         <v>1</v>
       </c>
+      <c r="G251" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -6994,6 +7749,9 @@
       <c r="F252" t="n">
         <v>0</v>
       </c>
+      <c r="G252" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7020,6 +7778,9 @@
       <c r="F253" t="n">
         <v>1</v>
       </c>
+      <c r="G253" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7029,11 +7790,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Cloud Computing</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1.325904282253916</v>
+        <v>0.4069921461155636</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -7046,6 +7807,9 @@
       <c r="F254" t="n">
         <v>6</v>
       </c>
+      <c r="G254" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7055,11 +7819,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Cloud Computing</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.4069921461155636</v>
+        <v>1.325904282253916</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -7072,6 +7836,9 @@
       <c r="F255" t="n">
         <v>6</v>
       </c>
+      <c r="G255" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7098,6 +7865,9 @@
       <c r="F256" t="n">
         <v>1</v>
       </c>
+      <c r="G256" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7124,6 +7894,9 @@
       <c r="F257" t="n">
         <v>3</v>
       </c>
+      <c r="G257" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7150,6 +7923,9 @@
       <c r="F258" t="n">
         <v>3</v>
       </c>
+      <c r="G258" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7176,6 +7952,9 @@
       <c r="F259" t="n">
         <v>2</v>
       </c>
+      <c r="G259" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7202,6 +7981,9 @@
       <c r="F260" t="n">
         <v>1</v>
       </c>
+      <c r="G260" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7228,6 +8010,9 @@
       <c r="F261" t="n">
         <v>4</v>
       </c>
+      <c r="G261" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7254,6 +8039,9 @@
       <c r="F262" t="n">
         <v>1</v>
       </c>
+      <c r="G262" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7280,6 +8068,9 @@
       <c r="F263" t="n">
         <v>1</v>
       </c>
+      <c r="G263" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7306,6 +8097,9 @@
       <c r="F264" t="n">
         <v>1</v>
       </c>
+      <c r="G264" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7332,6 +8126,9 @@
       <c r="F265" t="n">
         <v>1</v>
       </c>
+      <c r="G265" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7358,6 +8155,9 @@
       <c r="F266" t="n">
         <v>4</v>
       </c>
+      <c r="G266" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7384,6 +8184,9 @@
       <c r="F267" t="n">
         <v>2</v>
       </c>
+      <c r="G267" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7410,6 +8213,9 @@
       <c r="F268" t="n">
         <v>2</v>
       </c>
+      <c r="G268" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7436,6 +8242,9 @@
       <c r="F269" t="n">
         <v>1</v>
       </c>
+      <c r="G269" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7462,6 +8271,9 @@
       <c r="F270" t="n">
         <v>5</v>
       </c>
+      <c r="G270" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7488,6 +8300,9 @@
       <c r="F271" t="n">
         <v>2</v>
       </c>
+      <c r="G271" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7514,6 +8329,9 @@
       <c r="F272" t="n">
         <v>0</v>
       </c>
+      <c r="G272" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7540,6 +8358,9 @@
       <c r="F273" t="n">
         <v>0</v>
       </c>
+      <c r="G273" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7566,6 +8387,9 @@
       <c r="F274" t="n">
         <v>0</v>
       </c>
+      <c r="G274" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7592,6 +8416,9 @@
       <c r="F275" t="n">
         <v>2</v>
       </c>
+      <c r="G275" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7618,6 +8445,9 @@
       <c r="F276" t="n">
         <v>3</v>
       </c>
+      <c r="G276" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7644,6 +8474,9 @@
       <c r="F277" t="n">
         <v>0</v>
       </c>
+      <c r="G277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7653,11 +8486,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1.568169747675148</v>
+        <v>1.286241817604096</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -7670,6 +8503,9 @@
       <c r="F278" t="n">
         <v>2</v>
       </c>
+      <c r="G278" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7679,11 +8515,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1.286241817604096</v>
+        <v>1.568169747675148</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -7696,6 +8532,9 @@
       <c r="F279" t="n">
         <v>2</v>
       </c>
+      <c r="G279" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7722,6 +8561,9 @@
       <c r="F280" t="n">
         <v>2</v>
       </c>
+      <c r="G280" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -7748,6 +8590,9 @@
       <c r="F281" t="n">
         <v>1</v>
       </c>
+      <c r="G281" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -7757,11 +8602,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1.31723680064733</v>
+        <v>0.4044900647357982</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -7774,6 +8619,9 @@
       <c r="F282" t="n">
         <v>2</v>
       </c>
+      <c r="G282" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7783,11 +8631,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.4044900647357982</v>
+        <v>1.31723680064733</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -7800,6 +8648,9 @@
       <c r="F283" t="n">
         <v>2</v>
       </c>
+      <c r="G283" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -7826,6 +8677,9 @@
       <c r="F284" t="n">
         <v>2</v>
       </c>
+      <c r="G284" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -7852,6 +8706,9 @@
       <c r="F285" t="n">
         <v>7</v>
       </c>
+      <c r="G285" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -7878,6 +8735,9 @@
       <c r="F286" t="n">
         <v>0</v>
       </c>
+      <c r="G286" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7904,6 +8764,9 @@
       <c r="F287" t="n">
         <v>1</v>
       </c>
+      <c r="G287" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7930,6 +8793,9 @@
       <c r="F288" t="n">
         <v>2</v>
       </c>
+      <c r="G288" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -7956,6 +8822,9 @@
       <c r="F289" t="n">
         <v>1</v>
       </c>
+      <c r="G289" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -7982,6 +8851,9 @@
       <c r="F290" t="n">
         <v>1</v>
       </c>
+      <c r="G290" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8008,6 +8880,9 @@
       <c r="F291" t="n">
         <v>3</v>
       </c>
+      <c r="G291" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8034,6 +8909,9 @@
       <c r="F292" t="n">
         <v>0</v>
       </c>
+      <c r="G292" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8060,6 +8938,9 @@
       <c r="F293" t="n">
         <v>2</v>
       </c>
+      <c r="G293" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8086,6 +8967,9 @@
       <c r="F294" t="n">
         <v>0</v>
       </c>
+      <c r="G294" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8112,6 +8996,9 @@
       <c r="F295" t="n">
         <v>5</v>
       </c>
+      <c r="G295" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8138,6 +9025,9 @@
       <c r="F296" t="n">
         <v>2</v>
       </c>
+      <c r="G296" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8164,6 +9054,9 @@
       <c r="F297" t="n">
         <v>0</v>
       </c>
+      <c r="G297" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8190,6 +9083,9 @@
       <c r="F298" t="n">
         <v>2</v>
       </c>
+      <c r="G298" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8216,6 +9112,9 @@
       <c r="F299" t="n">
         <v>3</v>
       </c>
+      <c r="G299" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8242,6 +9141,9 @@
       <c r="F300" t="n">
         <v>2</v>
       </c>
+      <c r="G300" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8268,6 +9170,9 @@
       <c r="F301" t="n">
         <v>0</v>
       </c>
+      <c r="G301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8294,6 +9199,9 @@
       <c r="F302" t="n">
         <v>0</v>
       </c>
+      <c r="G302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8320,6 +9228,9 @@
       <c r="F303" t="n">
         <v>2</v>
       </c>
+      <c r="G303" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8346,6 +9257,9 @@
       <c r="F304" t="n">
         <v>2</v>
       </c>
+      <c r="G304" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8372,6 +9286,9 @@
       <c r="F305" t="n">
         <v>2</v>
       </c>
+      <c r="G305" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8398,6 +9315,9 @@
       <c r="F306" t="n">
         <v>1</v>
       </c>
+      <c r="G306" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8424,6 +9344,9 @@
       <c r="F307" t="n">
         <v>1</v>
       </c>
+      <c r="G307" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8450,6 +9373,9 @@
       <c r="F308" t="n">
         <v>1</v>
       </c>
+      <c r="G308" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8476,6 +9402,9 @@
       <c r="F309" t="n">
         <v>2</v>
       </c>
+      <c r="G309" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8502,6 +9431,9 @@
       <c r="F310" t="n">
         <v>4</v>
       </c>
+      <c r="G310" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8528,6 +9460,9 @@
       <c r="F311" t="n">
         <v>0</v>
       </c>
+      <c r="G311" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -8554,6 +9489,9 @@
       <c r="F312" t="n">
         <v>4</v>
       </c>
+      <c r="G312" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -8580,6 +9518,9 @@
       <c r="F313" t="n">
         <v>4</v>
       </c>
+      <c r="G313" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -8601,11 +9542,14 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F314" t="n">
         <v>1</v>
       </c>
+      <c r="G314" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8627,11 +9571,14 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F315" t="n">
         <v>1</v>
       </c>
+      <c r="G315" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8658,6 +9605,9 @@
       <c r="F316" t="n">
         <v>3</v>
       </c>
+      <c r="G316" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8684,6 +9634,9 @@
       <c r="F317" t="n">
         <v>10</v>
       </c>
+      <c r="G317" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -8710,6 +9663,9 @@
       <c r="F318" t="n">
         <v>0</v>
       </c>
+      <c r="G318" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -8736,6 +9692,9 @@
       <c r="F319" t="n">
         <v>4</v>
       </c>
+      <c r="G319" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -8762,6 +9721,9 @@
       <c r="F320" t="n">
         <v>2</v>
       </c>
+      <c r="G320" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -8788,6 +9750,9 @@
       <c r="F321" t="n">
         <v>1</v>
       </c>
+      <c r="G321" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -8814,6 +9779,9 @@
       <c r="F322" t="n">
         <v>1</v>
       </c>
+      <c r="G322" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -8840,6 +9808,9 @@
       <c r="F323" t="n">
         <v>0</v>
       </c>
+      <c r="G323" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -8866,6 +9837,9 @@
       <c r="F324" t="n">
         <v>3</v>
       </c>
+      <c r="G324" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -8892,6 +9866,9 @@
       <c r="F325" t="n">
         <v>2</v>
       </c>
+      <c r="G325" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -8918,6 +9895,9 @@
       <c r="F326" t="n">
         <v>1</v>
       </c>
+      <c r="G326" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -8944,6 +9924,9 @@
       <c r="F327" t="n">
         <v>7</v>
       </c>
+      <c r="G327" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -8970,6 +9953,9 @@
       <c r="F328" t="n">
         <v>3</v>
       </c>
+      <c r="G328" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -8996,6 +9982,9 @@
       <c r="F329" t="n">
         <v>17</v>
       </c>
+      <c r="G329" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9022,6 +10011,9 @@
       <c r="F330" t="n">
         <v>4</v>
       </c>
+      <c r="G330" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9048,6 +10040,9 @@
       <c r="F331" t="n">
         <v>3</v>
       </c>
+      <c r="G331" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9074,6 +10069,9 @@
       <c r="F332" t="n">
         <v>3</v>
       </c>
+      <c r="G332" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9100,6 +10098,9 @@
       <c r="F333" t="n">
         <v>3</v>
       </c>
+      <c r="G333" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9126,6 +10127,9 @@
       <c r="F334" t="n">
         <v>1</v>
       </c>
+      <c r="G334" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9152,6 +10156,9 @@
       <c r="F335" t="n">
         <v>1</v>
       </c>
+      <c r="G335" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9178,6 +10185,9 @@
       <c r="F336" t="n">
         <v>5</v>
       </c>
+      <c r="G336" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9204,6 +10214,9 @@
       <c r="F337" t="n">
         <v>1</v>
       </c>
+      <c r="G337" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9230,6 +10243,9 @@
       <c r="F338" t="n">
         <v>0</v>
       </c>
+      <c r="G338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9256,6 +10272,9 @@
       <c r="F339" t="n">
         <v>3</v>
       </c>
+      <c r="G339" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9282,6 +10301,9 @@
       <c r="F340" t="n">
         <v>0</v>
       </c>
+      <c r="G340" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9308,6 +10330,9 @@
       <c r="F341" t="n">
         <v>15</v>
       </c>
+      <c r="G341" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9334,6 +10359,9 @@
       <c r="F342" t="n">
         <v>1</v>
       </c>
+      <c r="G342" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9360,6 +10388,9 @@
       <c r="F343" t="n">
         <v>0</v>
       </c>
+      <c r="G343" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -9386,6 +10417,9 @@
       <c r="F344" t="n">
         <v>3</v>
       </c>
+      <c r="G344" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -9412,6 +10446,9 @@
       <c r="F345" t="n">
         <v>2</v>
       </c>
+      <c r="G345" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -9438,6 +10475,9 @@
       <c r="F346" t="n">
         <v>0</v>
       </c>
+      <c r="G346" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -9464,6 +10504,9 @@
       <c r="F347" t="n">
         <v>2</v>
       </c>
+      <c r="G347" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -9490,6 +10533,9 @@
       <c r="F348" t="n">
         <v>1</v>
       </c>
+      <c r="G348" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -9516,6 +10562,9 @@
       <c r="F349" t="n">
         <v>2</v>
       </c>
+      <c r="G349" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -9542,6 +10591,9 @@
       <c r="F350" t="n">
         <v>1</v>
       </c>
+      <c r="G350" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -9568,6 +10620,9 @@
       <c r="F351" t="n">
         <v>2</v>
       </c>
+      <c r="G351" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -9594,6 +10649,9 @@
       <c r="F352" t="n">
         <v>1</v>
       </c>
+      <c r="G352" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -9620,6 +10678,9 @@
       <c r="F353" t="n">
         <v>3</v>
       </c>
+      <c r="G353" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -9646,6 +10707,9 @@
       <c r="F354" t="n">
         <v>7</v>
       </c>
+      <c r="G354" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -9672,6 +10736,9 @@
       <c r="F355" t="n">
         <v>4</v>
       </c>
+      <c r="G355" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -9698,6 +10765,9 @@
       <c r="F356" t="n">
         <v>5</v>
       </c>
+      <c r="G356" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -9724,6 +10794,9 @@
       <c r="F357" t="n">
         <v>1</v>
       </c>
+      <c r="G357" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -9750,6 +10823,9 @@
       <c r="F358" t="n">
         <v>1</v>
       </c>
+      <c r="G358" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -9776,6 +10852,9 @@
       <c r="F359" t="n">
         <v>7</v>
       </c>
+      <c r="G359" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -9802,6 +10881,9 @@
       <c r="F360" t="n">
         <v>2</v>
       </c>
+      <c r="G360" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -9828,6 +10910,9 @@
       <c r="F361" t="n">
         <v>1</v>
       </c>
+      <c r="G361" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -9854,6 +10939,9 @@
       <c r="F362" t="n">
         <v>3</v>
       </c>
+      <c r="G362" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -9880,6 +10968,9 @@
       <c r="F363" t="n">
         <v>1</v>
       </c>
+      <c r="G363" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -9906,6 +10997,9 @@
       <c r="F364" t="n">
         <v>24</v>
       </c>
+      <c r="G364" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -9932,6 +11026,9 @@
       <c r="F365" t="n">
         <v>10</v>
       </c>
+      <c r="G365" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -9958,6 +11055,9 @@
       <c r="F366" t="n">
         <v>18</v>
       </c>
+      <c r="G366" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -9984,6 +11084,9 @@
       <c r="F367" t="n">
         <v>18</v>
       </c>
+      <c r="G367" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10010,6 +11113,9 @@
       <c r="F368" t="n">
         <v>3</v>
       </c>
+      <c r="G368" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10036,6 +11142,9 @@
       <c r="F369" t="n">
         <v>0</v>
       </c>
+      <c r="G369" t="n">
+        <v>5409</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10062,6 +11171,9 @@
       <c r="F370" t="n">
         <v>0</v>
       </c>
+      <c r="G370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10088,6 +11200,9 @@
       <c r="F371" t="n">
         <v>1</v>
       </c>
+      <c r="G371" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10114,6 +11229,9 @@
       <c r="F372" t="n">
         <v>0</v>
       </c>
+      <c r="G372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10140,6 +11258,9 @@
       <c r="F373" t="n">
         <v>2</v>
       </c>
+      <c r="G373" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10166,6 +11287,9 @@
       <c r="F374" t="n">
         <v>0</v>
       </c>
+      <c r="G374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10192,6 +11316,9 @@
       <c r="F375" t="n">
         <v>2</v>
       </c>
+      <c r="G375" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10218,6 +11345,9 @@
       <c r="F376" t="n">
         <v>0</v>
       </c>
+      <c r="G376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10244,6 +11374,9 @@
       <c r="F377" t="n">
         <v>3</v>
       </c>
+      <c r="G377" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10270,6 +11403,9 @@
       <c r="F378" t="n">
         <v>3</v>
       </c>
+      <c r="G378" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -10296,6 +11432,9 @@
       <c r="F379" t="n">
         <v>0</v>
       </c>
+      <c r="G379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -10322,6 +11461,9 @@
       <c r="F380" t="n">
         <v>0</v>
       </c>
+      <c r="G380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -10348,6 +11490,9 @@
       <c r="F381" t="n">
         <v>0</v>
       </c>
+      <c r="G381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -10374,6 +11519,9 @@
       <c r="F382" t="n">
         <v>3</v>
       </c>
+      <c r="G382" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -10400,6 +11548,9 @@
       <c r="F383" t="n">
         <v>3</v>
       </c>
+      <c r="G383" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -10426,6 +11577,9 @@
       <c r="F384" t="n">
         <v>3</v>
       </c>
+      <c r="G384" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -10452,6 +11606,9 @@
       <c r="F385" t="n">
         <v>2</v>
       </c>
+      <c r="G385" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -10478,6 +11635,9 @@
       <c r="F386" t="n">
         <v>1</v>
       </c>
+      <c r="G386" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -10504,6 +11664,9 @@
       <c r="F387" t="n">
         <v>2</v>
       </c>
+      <c r="G387" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -10530,6 +11693,9 @@
       <c r="F388" t="n">
         <v>3</v>
       </c>
+      <c r="G388" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -10556,6 +11722,9 @@
       <c r="F389" t="n">
         <v>3</v>
       </c>
+      <c r="G389" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -10582,6 +11751,9 @@
       <c r="F390" t="n">
         <v>3</v>
       </c>
+      <c r="G390" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -10608,6 +11780,9 @@
       <c r="F391" t="n">
         <v>1</v>
       </c>
+      <c r="G391" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -10634,6 +11809,9 @@
       <c r="F392" t="n">
         <v>1</v>
       </c>
+      <c r="G392" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -10660,6 +11838,9 @@
       <c r="F393" t="n">
         <v>1</v>
       </c>
+      <c r="G393" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -10686,6 +11867,9 @@
       <c r="F394" t="n">
         <v>2</v>
       </c>
+      <c r="G394" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -10712,6 +11896,9 @@
       <c r="F395" t="n">
         <v>7</v>
       </c>
+      <c r="G395" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -10738,6 +11925,9 @@
       <c r="F396" t="n">
         <v>7</v>
       </c>
+      <c r="G396" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -10764,6 +11954,9 @@
       <c r="F397" t="n">
         <v>1</v>
       </c>
+      <c r="G397" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -10790,6 +11983,9 @@
       <c r="F398" t="n">
         <v>2</v>
       </c>
+      <c r="G398" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -10816,6 +12012,9 @@
       <c r="F399" t="n">
         <v>1</v>
       </c>
+      <c r="G399" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -10842,6 +12041,9 @@
       <c r="F400" t="n">
         <v>1</v>
       </c>
+      <c r="G400" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -10851,11 +12053,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1.277343567971424</v>
+        <v>1.084214019608908</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -10868,6 +12070,9 @@
       <c r="F401" t="n">
         <v>1</v>
       </c>
+      <c r="G401" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -10877,11 +12082,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1.30605315537075</v>
+        <v>1.277343567971424</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -10894,6 +12099,9 @@
       <c r="F402" t="n">
         <v>1</v>
       </c>
+      <c r="G402" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -10903,11 +12111,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1.084214019608908</v>
+        <v>1.30605315537075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -10920,6 +12128,9 @@
       <c r="F403" t="n">
         <v>1</v>
       </c>
+      <c r="G403" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -10946,6 +12157,9 @@
       <c r="F404" t="n">
         <v>0</v>
       </c>
+      <c r="G404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -10972,6 +12186,9 @@
       <c r="F405" t="n">
         <v>2</v>
       </c>
+      <c r="G405" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -10998,6 +12215,9 @@
       <c r="F406" t="n">
         <v>0</v>
       </c>
+      <c r="G406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -11019,11 +12239,14 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F407" t="n">
         <v>0</v>
       </c>
+      <c r="G407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -11045,11 +12268,14 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F408" t="n">
         <v>0</v>
       </c>
+      <c r="G408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11059,11 +12285,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1.453569078949135</v>
+        <v>1.382924478838495</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -11076,6 +12302,9 @@
       <c r="F409" t="n">
         <v>702</v>
       </c>
+      <c r="G409" t="n">
+        <v>2031</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -11102,6 +12331,9 @@
       <c r="F410" t="n">
         <v>702</v>
       </c>
+      <c r="G410" t="n">
+        <v>2031</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -11111,11 +12343,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1.382924478838495</v>
+        <v>1.453569078949135</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -11128,6 +12360,9 @@
       <c r="F411" t="n">
         <v>702</v>
       </c>
+      <c r="G411" t="n">
+        <v>2031</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -11154,6 +12389,9 @@
       <c r="F412" t="n">
         <v>702</v>
       </c>
+      <c r="G412" t="n">
+        <v>2031</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -11180,6 +12418,9 @@
       <c r="F413" t="n">
         <v>2</v>
       </c>
+      <c r="G413" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -11206,6 +12447,9 @@
       <c r="F414" t="n">
         <v>1</v>
       </c>
+      <c r="G414" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -11215,11 +12459,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1.590926475904873</v>
+        <v>1.198736864815485</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -11232,6 +12476,9 @@
       <c r="F415" t="n">
         <v>7</v>
       </c>
+      <c r="G415" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -11241,11 +12488,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>1.198736864815485</v>
+        <v>1.590926475904873</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -11258,6 +12505,9 @@
       <c r="F416" t="n">
         <v>7</v>
       </c>
+      <c r="G416" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -11284,6 +12534,9 @@
       <c r="F417" t="n">
         <v>7</v>
       </c>
+      <c r="G417" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -11310,6 +12563,9 @@
       <c r="F418" t="n">
         <v>3</v>
       </c>
+      <c r="G418" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -11336,6 +12592,9 @@
       <c r="F419" t="n">
         <v>2</v>
       </c>
+      <c r="G419" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -11357,11 +12616,14 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F420" t="n">
         <v>0</v>
       </c>
+      <c r="G420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -11383,11 +12645,14 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F421" t="n">
         <v>0</v>
       </c>
+      <c r="G421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -11414,6 +12679,9 @@
       <c r="F422" t="n">
         <v>1</v>
       </c>
+      <c r="G422" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -11440,6 +12708,9 @@
       <c r="F423" t="n">
         <v>1</v>
       </c>
+      <c r="G423" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -11461,11 +12732,14 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F424" t="n">
         <v>2</v>
       </c>
+      <c r="G424" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -11487,11 +12761,14 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F425" t="n">
         <v>2</v>
       </c>
+      <c r="G425" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -11518,6 +12795,9 @@
       <c r="F426" t="n">
         <v>0</v>
       </c>
+      <c r="G426" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -11544,6 +12824,9 @@
       <c r="F427" t="n">
         <v>0</v>
       </c>
+      <c r="G427" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -11570,6 +12853,9 @@
       <c r="F428" t="n">
         <v>4</v>
       </c>
+      <c r="G428" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -11596,6 +12882,9 @@
       <c r="F429" t="n">
         <v>4</v>
       </c>
+      <c r="G429" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -11622,6 +12911,9 @@
       <c r="F430" t="n">
         <v>1</v>
       </c>
+      <c r="G430" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -11648,6 +12940,9 @@
       <c r="F431" t="n">
         <v>4</v>
       </c>
+      <c r="G431" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -11674,6 +12969,9 @@
       <c r="F432" t="n">
         <v>2</v>
       </c>
+      <c r="G432" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -11700,6 +12998,9 @@
       <c r="F433" t="n">
         <v>1018</v>
       </c>
+      <c r="G433" t="n">
+        <v>2613</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -11726,6 +13027,9 @@
       <c r="F434" t="n">
         <v>2</v>
       </c>
+      <c r="G434" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -11752,6 +13056,9 @@
       <c r="F435" t="n">
         <v>0</v>
       </c>
+      <c r="G435" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -11778,6 +13085,9 @@
       <c r="F436" t="n">
         <v>0</v>
       </c>
+      <c r="G436" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -11804,6 +13114,9 @@
       <c r="F437" t="n">
         <v>4</v>
       </c>
+      <c r="G437" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -11813,11 +13126,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1.590685760356805</v>
+        <v>1.198532627553472</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -11830,6 +13143,9 @@
       <c r="F438" t="n">
         <v>0</v>
       </c>
+      <c r="G438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -11856,6 +13172,9 @@
       <c r="F439" t="n">
         <v>0</v>
       </c>
+      <c r="G439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -11865,11 +13184,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1.198532627553472</v>
+        <v>1.590685760356805</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -11882,6 +13201,9 @@
       <c r="F440" t="n">
         <v>0</v>
       </c>
+      <c r="G440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -11908,6 +13230,9 @@
       <c r="F441" t="n">
         <v>0</v>
       </c>
+      <c r="G441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -11934,6 +13259,9 @@
       <c r="F442" t="n">
         <v>2</v>
       </c>
+      <c r="G442" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -11960,6 +13288,9 @@
       <c r="F443" t="n">
         <v>2</v>
       </c>
+      <c r="G443" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -11986,6 +13317,9 @@
       <c r="F444" t="n">
         <v>1</v>
       </c>
+      <c r="G444" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -12012,6 +13346,9 @@
       <c r="F445" t="n">
         <v>1</v>
       </c>
+      <c r="G445" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -12038,6 +13375,9 @@
       <c r="F446" t="n">
         <v>1</v>
       </c>
+      <c r="G446" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -12064,6 +13404,9 @@
       <c r="F447" t="n">
         <v>2</v>
       </c>
+      <c r="G447" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -12090,6 +13433,9 @@
       <c r="F448" t="n">
         <v>2</v>
       </c>
+      <c r="G448" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -12116,6 +13462,9 @@
       <c r="F449" t="n">
         <v>3</v>
       </c>
+      <c r="G449" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -12142,6 +13491,9 @@
       <c r="F450" t="n">
         <v>0</v>
       </c>
+      <c r="G450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -12168,6 +13520,9 @@
       <c r="F451" t="n">
         <v>1</v>
       </c>
+      <c r="G451" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -12194,6 +13549,9 @@
       <c r="F452" t="n">
         <v>5</v>
       </c>
+      <c r="G452" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -12220,6 +13578,9 @@
       <c r="F453" t="n">
         <v>5</v>
       </c>
+      <c r="G453" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -12246,6 +13607,9 @@
       <c r="F454" t="n">
         <v>5</v>
       </c>
+      <c r="G454" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -12272,6 +13636,9 @@
       <c r="F455" t="n">
         <v>0</v>
       </c>
+      <c r="G455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -12298,6 +13665,9 @@
       <c r="F456" t="n">
         <v>3</v>
       </c>
+      <c r="G456" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -12324,6 +13694,9 @@
       <c r="F457" t="n">
         <v>3</v>
       </c>
+      <c r="G457" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -12350,6 +13723,9 @@
       <c r="F458" t="n">
         <v>3</v>
       </c>
+      <c r="G458" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -12376,6 +13752,9 @@
       <c r="F459" t="n">
         <v>1</v>
       </c>
+      <c r="G459" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -12402,6 +13781,9 @@
       <c r="F460" t="n">
         <v>4</v>
       </c>
+      <c r="G460" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -12428,6 +13810,9 @@
       <c r="F461" t="n">
         <v>0</v>
       </c>
+      <c r="G461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -12454,6 +13839,9 @@
       <c r="F462" t="n">
         <v>5</v>
       </c>
+      <c r="G462" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -12480,6 +13868,9 @@
       <c r="F463" t="n">
         <v>2</v>
       </c>
+      <c r="G463" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -12506,6 +13897,9 @@
       <c r="F464" t="n">
         <v>1</v>
       </c>
+      <c r="G464" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -12532,6 +13926,9 @@
       <c r="F465" t="n">
         <v>2</v>
       </c>
+      <c r="G465" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -12558,6 +13955,9 @@
       <c r="F466" t="n">
         <v>3</v>
       </c>
+      <c r="G466" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -12584,6 +13984,9 @@
       <c r="F467" t="n">
         <v>2</v>
       </c>
+      <c r="G467" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -12610,6 +14013,9 @@
       <c r="F468" t="n">
         <v>1</v>
       </c>
+      <c r="G468" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -12636,6 +14042,9 @@
       <c r="F469" t="n">
         <v>5</v>
       </c>
+      <c r="G469" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -12662,6 +14071,9 @@
       <c r="F470" t="n">
         <v>1</v>
       </c>
+      <c r="G470" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -12688,6 +14100,9 @@
       <c r="F471" t="n">
         <v>1</v>
       </c>
+      <c r="G471" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -12714,6 +14129,9 @@
       <c r="F472" t="n">
         <v>1</v>
       </c>
+      <c r="G472" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -12740,6 +14158,9 @@
       <c r="F473" t="n">
         <v>1</v>
       </c>
+      <c r="G473" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -12766,6 +14187,9 @@
       <c r="F474" t="n">
         <v>3</v>
       </c>
+      <c r="G474" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -12792,6 +14216,9 @@
       <c r="F475" t="n">
         <v>3</v>
       </c>
+      <c r="G475" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -12818,6 +14245,9 @@
       <c r="F476" t="n">
         <v>8</v>
       </c>
+      <c r="G476" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -12844,6 +14274,9 @@
       <c r="F477" t="n">
         <v>31</v>
       </c>
+      <c r="G477" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -12870,6 +14303,9 @@
       <c r="F478" t="n">
         <v>31</v>
       </c>
+      <c r="G478" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -12896,6 +14332,9 @@
       <c r="F479" t="n">
         <v>30</v>
       </c>
+      <c r="G479" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -12922,6 +14361,9 @@
       <c r="F480" t="n">
         <v>1</v>
       </c>
+      <c r="G480" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -12947,6 +14389,9 @@
       </c>
       <c r="F481" t="n">
         <v>3</v>
+      </c>
+      <c r="G481" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/results/kl_content_vs_domain.xlsx
+++ b/src/results/kl_content_vs_domain.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>depth</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -699,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -757,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -786,7 +786,7 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -815,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -844,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -884,11 +884,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.111811619926812</v>
+        <v>1.280159219646041</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -913,11 +913,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.280159219646041</v>
+        <v>1.308904498665506</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -942,11 +942,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.308904498665506</v>
+        <v>1.111811619926812</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -989,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1018,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1047,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1076,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1105,7 +1105,7 @@
         <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1134,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1163,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1174,11 +1174,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.093706220402642</v>
+        <v>1.30154764459267</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1203,11 +1203,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.30154764459267</v>
+        <v>1.093706220402642</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1250,7 +1250,7 @@
         <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1279,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1308,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1366,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1395,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="G33" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1424,7 +1424,7 @@
         <v>15</v>
       </c>
       <c r="G34" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1453,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="G35" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1482,7 +1482,7 @@
         <v>13</v>
       </c>
       <c r="G36" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1511,7 +1511,7 @@
         <v>16</v>
       </c>
       <c r="G37" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1540,7 +1540,7 @@
         <v>19</v>
       </c>
       <c r="G38" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1569,7 +1569,7 @@
         <v>23</v>
       </c>
       <c r="G39" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1598,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="G40" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1627,7 +1627,7 @@
         <v>8</v>
       </c>
       <c r="G41" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1656,7 +1656,7 @@
         <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1685,7 +1685,7 @@
         <v>18</v>
       </c>
       <c r="G43" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1714,7 +1714,7 @@
         <v>16</v>
       </c>
       <c r="G44" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1743,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1772,7 +1772,7 @@
         <v>16</v>
       </c>
       <c r="G46" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1801,7 +1801,7 @@
         <v>16</v>
       </c>
       <c r="G47" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1812,11 +1812,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.752954522851585</v>
+        <v>1.699632311696291</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>7</v>
       </c>
       <c r="G48" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1841,11 +1841,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.699632311696291</v>
+        <v>1.752954522851585</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="G49" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1888,7 +1888,7 @@
         <v>17</v>
       </c>
       <c r="G50" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1917,7 +1917,7 @@
         <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1946,7 +1946,7 @@
         <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1975,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="G53" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2004,7 +2004,7 @@
         <v>25</v>
       </c>
       <c r="G54" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2033,7 +2033,7 @@
         <v>20</v>
       </c>
       <c r="G55" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2044,11 +2044,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.101682556503525</v>
+        <v>1.297823671063877</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>5</v>
       </c>
       <c r="G56" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2073,11 +2073,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.297823671063877</v>
+        <v>1.101682556503525</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>5</v>
       </c>
       <c r="G57" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2120,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="G58" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2149,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="G59" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2178,7 +2178,7 @@
         <v>12</v>
       </c>
       <c r="G60" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2189,11 +2189,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.110520148269725</v>
+        <v>1.278764198178463</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>6</v>
       </c>
       <c r="G61" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2218,11 +2218,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.278764198178463</v>
+        <v>1.307491796113078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>6</v>
       </c>
       <c r="G62" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2247,11 +2247,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.307491796113078</v>
+        <v>1.110520148269725</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="G63" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2276,11 +2276,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.6820174274466928</v>
+        <v>1.299821748090305</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2305,11 +2305,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.299821748090305</v>
+        <v>0.6820174274466928</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>6</v>
       </c>
       <c r="G65" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2334,11 +2334,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.421902729136986</v>
+        <v>1.646090238398382</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>15</v>
       </c>
       <c r="G66" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -2363,11 +2363,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.646090238398382</v>
+        <v>1.275439333775189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>15</v>
       </c>
       <c r="G67" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2392,11 +2392,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.275439333775189</v>
+        <v>1.421902729136986</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>15</v>
       </c>
       <c r="G68" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2450,11 +2450,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.516467875936885</v>
+        <v>1.278103739949207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2479,11 +2479,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.278103739949207</v>
+        <v>1.516467875936885</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2526,7 +2526,7 @@
         <v>12</v>
       </c>
       <c r="G72" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2555,7 +2555,7 @@
         <v>6</v>
       </c>
       <c r="G73" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2584,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="G74" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2613,7 +2613,7 @@
         <v>13</v>
       </c>
       <c r="G75" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2642,7 +2642,7 @@
         <v>24</v>
       </c>
       <c r="G76" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2671,7 +2671,7 @@
         <v>24</v>
       </c>
       <c r="G77" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2700,7 +2700,7 @@
         <v>4</v>
       </c>
       <c r="G78" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2729,7 +2729,7 @@
         <v>8</v>
       </c>
       <c r="G79" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2758,7 +2758,7 @@
         <v>16</v>
       </c>
       <c r="G80" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2769,11 +2769,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.1800494104157</v>
+        <v>1.286886989523065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2798,11 +2798,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.286886989523065</v>
+        <v>1.210261414878152</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2827,11 +2827,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.210261414878152</v>
+        <v>1.1800494104157</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>4</v>
       </c>
       <c r="G83" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2874,7 +2874,7 @@
         <v>5</v>
       </c>
       <c r="G84" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2903,7 +2903,7 @@
         <v>6</v>
       </c>
       <c r="G85" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2932,7 +2932,7 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2961,7 +2961,7 @@
         <v>6</v>
       </c>
       <c r="G87" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2990,7 +2990,7 @@
         <v>4</v>
       </c>
       <c r="G88" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -3019,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="G89" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -3048,7 +3048,7 @@
         <v>19</v>
       </c>
       <c r="G90" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -3059,11 +3059,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.524558387238786</v>
+        <v>1.247455895200835</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>12</v>
       </c>
       <c r="G91" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3088,11 +3088,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.247455895200835</v>
+        <v>1.524558387238786</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>12</v>
       </c>
       <c r="G92" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3135,7 +3135,7 @@
         <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -3164,7 +3164,7 @@
         <v>6</v>
       </c>
       <c r="G94" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -3193,7 +3193,7 @@
         <v>7</v>
       </c>
       <c r="G95" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -3222,7 +3222,7 @@
         <v>7</v>
       </c>
       <c r="G96" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -3251,7 +3251,7 @@
         <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -3281,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="G98" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -3310,7 +3310,7 @@
         <v>13</v>
       </c>
       <c r="G99" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3339,7 +3339,7 @@
         <v>26</v>
       </c>
       <c r="G100" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -3350,11 +3350,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1.176809478201871</v>
+        <v>1.28348739099033</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>6</v>
       </c>
       <c r="G101" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3379,11 +3379,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.28348739099033</v>
+        <v>1.206976331514516</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>6</v>
       </c>
       <c r="G102" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3408,11 +3408,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.206976331514516</v>
+        <v>1.176809478201871</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>6</v>
       </c>
       <c r="G103" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3455,7 +3455,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -3484,7 +3484,7 @@
         <v>16</v>
       </c>
       <c r="G105" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -3513,7 +3513,7 @@
         <v>9</v>
       </c>
       <c r="G106" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3524,11 +3524,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Banking</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.093504007017626</v>
+        <v>1.694631898032067</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>9</v>
       </c>
       <c r="G107" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -3571,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="G108" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -3582,11 +3582,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Banking</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1.694631898032067</v>
+        <v>1.093504007017626</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>9</v>
       </c>
       <c r="G109" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -3629,7 +3629,7 @@
         <v>25</v>
       </c>
       <c r="G110" t="n">
-        <v>72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -3658,7 +3658,7 @@
         <v>8</v>
       </c>
       <c r="G111" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -3687,7 +3687,7 @@
         <v>14</v>
       </c>
       <c r="G112" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3716,7 +3716,7 @@
         <v>18</v>
       </c>
       <c r="G113" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3745,7 +3745,7 @@
         <v>5</v>
       </c>
       <c r="G114" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3774,7 +3774,7 @@
         <v>3</v>
       </c>
       <c r="G115" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3803,7 +3803,7 @@
         <v>5</v>
       </c>
       <c r="G116" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -3814,11 +3814,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1.430273150284996</v>
+        <v>1.734512648984248</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3843,11 +3843,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1.734512648984248</v>
+        <v>1.430273150284996</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3890,7 +3890,7 @@
         <v>17</v>
       </c>
       <c r="G119" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3901,11 +3901,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1.575355669424916</v>
+        <v>1.215816667569774</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>46</v>
       </c>
       <c r="G120" t="n">
-        <v>143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3930,11 +3930,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1.002697634242313</v>
+        <v>1.575355669424916</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>46</v>
       </c>
       <c r="G121" t="n">
-        <v>143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3959,11 +3959,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1.215816667569774</v>
+        <v>1.002697634242313</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>46</v>
       </c>
       <c r="G122" t="n">
-        <v>143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3988,11 +3988,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.783406641783279</v>
+        <v>1.286055912144546</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>6</v>
       </c>
       <c r="G123" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -4017,11 +4017,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1.286055912144546</v>
+        <v>1.729490457034397</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>6</v>
       </c>
       <c r="G124" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4046,11 +4046,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1.729490457034397</v>
+        <v>1.783406641783279</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>6</v>
       </c>
       <c r="G125" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4093,7 +4093,7 @@
         <v>11</v>
       </c>
       <c r="G126" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4122,7 +4122,7 @@
         <v>6</v>
       </c>
       <c r="G127" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4151,7 +4151,7 @@
         <v>30</v>
       </c>
       <c r="G128" t="n">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -4180,7 +4180,7 @@
         <v>17</v>
       </c>
       <c r="G129" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -4209,7 +4209,7 @@
         <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -4220,11 +4220,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1.68300341433412</v>
+        <v>1.312166765121346</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>49</v>
       </c>
       <c r="G131" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -4249,11 +4249,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1.312166765121346</v>
+        <v>1.68300341433412</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>49</v>
       </c>
       <c r="G132" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -4296,7 +4296,7 @@
         <v>15</v>
       </c>
       <c r="G133" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -4325,7 +4325,7 @@
         <v>28</v>
       </c>
       <c r="G134" t="n">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -4354,7 +4354,7 @@
         <v>13</v>
       </c>
       <c r="G135" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -4383,7 +4383,7 @@
         <v>41</v>
       </c>
       <c r="G136" t="n">
-        <v>121</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -4412,7 +4412,7 @@
         <v>13</v>
       </c>
       <c r="G137" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -4441,7 +4441,7 @@
         <v>12</v>
       </c>
       <c r="G138" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4452,11 +4452,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1.175845428019293</v>
+        <v>1.282475810641251</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -4481,11 +4481,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.282475810641251</v>
+        <v>1.20599884054065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -4510,11 +4510,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1.20599884054065</v>
+        <v>1.175845428019293</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>10</v>
       </c>
       <c r="G141" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -4557,7 +4557,7 @@
         <v>15</v>
       </c>
       <c r="G142" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -4586,7 +4586,7 @@
         <v>14</v>
       </c>
       <c r="G143" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4615,7 +4615,7 @@
         <v>14</v>
       </c>
       <c r="G144" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4626,11 +4626,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1.179323017588604</v>
+        <v>1.286124808973367</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>8</v>
       </c>
       <c r="G145" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -4655,11 +4655,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1.286124808973367</v>
+        <v>1.209524901840134</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>8</v>
       </c>
       <c r="G146" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -4684,11 +4684,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1.209524901840134</v>
+        <v>1.179323017588604</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="G147" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -4731,7 +4731,7 @@
         <v>14</v>
       </c>
       <c r="G148" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4760,7 +4760,7 @@
         <v>11</v>
       </c>
       <c r="G149" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -4789,7 +4789,7 @@
         <v>21</v>
       </c>
       <c r="G150" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4818,7 +4818,7 @@
         <v>17</v>
       </c>
       <c r="G151" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -4847,7 +4847,7 @@
         <v>19</v>
       </c>
       <c r="G152" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4876,7 +4876,7 @@
         <v>6</v>
       </c>
       <c r="G153" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -4906,7 +4906,7 @@
         <v>26</v>
       </c>
       <c r="G154" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -4917,11 +4917,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.78403369632228</v>
+        <v>1.286570370102776</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>8</v>
       </c>
       <c r="G155" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.286570370102776</v>
+        <v>1.730105305342081</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>8</v>
       </c>
       <c r="G156" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -4975,11 +4975,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1.730105305342081</v>
+        <v>1.78403369632228</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>8</v>
       </c>
       <c r="G157" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -5022,7 +5022,7 @@
         <v>9</v>
       </c>
       <c r="G158" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -5051,7 +5051,7 @@
         <v>6</v>
       </c>
       <c r="G159" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -5080,7 +5080,7 @@
         <v>6</v>
       </c>
       <c r="G160" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -5109,7 +5109,7 @@
         <v>11</v>
       </c>
       <c r="G161" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -5138,7 +5138,7 @@
         <v>22</v>
       </c>
       <c r="G162" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -5149,11 +5149,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1.114290615233317</v>
+        <v>1.28283689613743</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>6</v>
       </c>
       <c r="G163" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -5178,11 +5178,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.28283689613743</v>
+        <v>1.311616099882314</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>6</v>
       </c>
       <c r="G164" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -5207,11 +5207,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1.311616099882314</v>
+        <v>1.114290615233317</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>6</v>
       </c>
       <c r="G165" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -5236,11 +5236,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.081047665511341</v>
+        <v>1.259143142073834</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>21</v>
       </c>
       <c r="G166" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -5265,11 +5265,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1.259143142073834</v>
+        <v>1.287621548898604</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>21</v>
       </c>
       <c r="G167" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -5294,11 +5294,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1.287621548898604</v>
+        <v>1.081047665511341</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>21</v>
       </c>
       <c r="G168" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -5341,7 +5341,7 @@
         <v>5</v>
       </c>
       <c r="G169" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -5352,11 +5352,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1.098213842595061</v>
+        <v>1.277790490535652</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>19</v>
       </c>
       <c r="G170" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -5381,11 +5381,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1.277790490535652</v>
+        <v>1.098213842595061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>19</v>
       </c>
       <c r="G171" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -5429,7 +5429,7 @@
         <v>28</v>
       </c>
       <c r="G172" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -5459,7 +5459,7 @@
         <v>18</v>
       </c>
       <c r="G173" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -5488,7 +5488,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="n">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -5517,7 +5517,7 @@
         <v>14</v>
       </c>
       <c r="G175" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -5546,7 +5546,7 @@
         <v>13</v>
       </c>
       <c r="G176" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -5575,7 +5575,7 @@
         <v>14</v>
       </c>
       <c r="G177" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -5604,7 +5604,7 @@
         <v>11</v>
       </c>
       <c r="G178" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -5633,7 +5633,7 @@
         <v>17</v>
       </c>
       <c r="G179" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -5644,11 +5644,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1.783371658114836</v>
+        <v>1.286027210559761</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>10</v>
       </c>
       <c r="G180" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -5673,11 +5673,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1.286027210559761</v>
+        <v>1.729456154386334</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -5702,11 +5702,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1.729456154386334</v>
+        <v>1.783371658114836</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -5749,7 +5749,7 @@
         <v>8</v>
       </c>
       <c r="G183" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -5778,7 +5778,7 @@
         <v>20</v>
       </c>
       <c r="G184" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -5789,11 +5789,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1.075657838504403</v>
+        <v>1.253287050896533</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>7</v>
       </c>
       <c r="G185" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -5818,11 +5818,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1.253287050896533</v>
+        <v>1.281690899619166</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>7</v>
       </c>
       <c r="G186" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -5847,11 +5847,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1.281690899619166</v>
+        <v>1.075657838504403</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>7</v>
       </c>
       <c r="G187" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -5894,7 +5894,7 @@
         <v>8</v>
       </c>
       <c r="G188" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -5923,7 +5923,7 @@
         <v>10</v>
       </c>
       <c r="G189" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -5934,11 +5934,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.4019769812935054</v>
+        <v>1.55513094391749</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>10</v>
       </c>
       <c r="G190" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -5963,11 +5963,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1.55513094391749</v>
+        <v>0.4019769812935054</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>10</v>
       </c>
       <c r="G191" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -6010,7 +6010,7 @@
         <v>11</v>
       </c>
       <c r="G192" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -6039,7 +6039,7 @@
         <v>10</v>
       </c>
       <c r="G193" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -6068,7 +6068,7 @@
         <v>15</v>
       </c>
       <c r="G194" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -6097,7 +6097,7 @@
         <v>20</v>
       </c>
       <c r="G195" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -6126,7 +6126,7 @@
         <v>13</v>
       </c>
       <c r="G196" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -6155,7 +6155,7 @@
         <v>4</v>
       </c>
       <c r="G197" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -6184,7 +6184,7 @@
         <v>30</v>
       </c>
       <c r="G198" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -6213,7 +6213,7 @@
         <v>13</v>
       </c>
       <c r="G199" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -6242,7 +6242,7 @@
         <v>11</v>
       </c>
       <c r="G200" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -6271,7 +6271,7 @@
         <v>12</v>
       </c>
       <c r="G201" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -6300,7 +6300,7 @@
         <v>30</v>
       </c>
       <c r="G202" t="n">
-        <v>84</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -6329,7 +6329,7 @@
         <v>18</v>
       </c>
       <c r="G203" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -6358,7 +6358,7 @@
         <v>14</v>
       </c>
       <c r="G204" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -6387,7 +6387,7 @@
         <v>8</v>
       </c>
       <c r="G205" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -6416,7 +6416,7 @@
         <v>8</v>
       </c>
       <c r="G206" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -6445,7 +6445,7 @@
         <v>12</v>
       </c>
       <c r="G207" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -6474,7 +6474,7 @@
         <v>10</v>
       </c>
       <c r="G208" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -6503,7 +6503,7 @@
         <v>18</v>
       </c>
       <c r="G209" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -6532,7 +6532,7 @@
         <v>9</v>
       </c>
       <c r="G210" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -6561,7 +6561,7 @@
         <v>19</v>
       </c>
       <c r="G211" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -6590,7 +6590,7 @@
         <v>10</v>
       </c>
       <c r="G212" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -6619,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -6630,11 +6630,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1.098352733978652</v>
+        <v>1.277941342415531</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>24</v>
       </c>
       <c r="G214" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -6659,11 +6659,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1.277941342415531</v>
+        <v>1.098352733978652</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>24</v>
       </c>
       <c r="G215" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -6706,7 +6706,7 @@
         <v>16</v>
       </c>
       <c r="G216" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -6735,7 +6735,7 @@
         <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -6764,7 +6764,7 @@
         <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -6793,7 +6793,7 @@
         <v>3</v>
       </c>
       <c r="G219" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -6822,7 +6822,7 @@
         <v>11</v>
       </c>
       <c r="G220" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="G223" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -6938,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -6967,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -6996,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -7025,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="G227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -7054,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="G228" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -7083,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -7112,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -7141,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -7170,7 +7170,7 @@
         <v>2</v>
       </c>
       <c r="G232" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -7199,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -7228,7 +7228,7 @@
         <v>2</v>
       </c>
       <c r="G234" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -7257,7 +7257,7 @@
         <v>3</v>
       </c>
       <c r="G235" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -7286,7 +7286,7 @@
         <v>2</v>
       </c>
       <c r="G236" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -7315,7 +7315,7 @@
         <v>25</v>
       </c>
       <c r="G237" t="n">
-        <v>123</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -7344,7 +7344,7 @@
         <v>5</v>
       </c>
       <c r="G238" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -7402,7 +7402,7 @@
         <v>2</v>
       </c>
       <c r="G240" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -7460,7 +7460,7 @@
         <v>5</v>
       </c>
       <c r="G242" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -7489,7 +7489,7 @@
         <v>2</v>
       </c>
       <c r="G243" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -7518,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="G244" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -7576,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="G246" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -7634,7 +7634,7 @@
         <v>2</v>
       </c>
       <c r="G248" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -7663,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="G249" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -7721,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="G251" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -7808,7 +7808,7 @@
         <v>6</v>
       </c>
       <c r="G254" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -7837,7 +7837,7 @@
         <v>6</v>
       </c>
       <c r="G255" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
@@ -7866,7 +7866,7 @@
         <v>1</v>
       </c>
       <c r="G256" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -7877,11 +7877,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1.440416001632845</v>
+        <v>1.745930431339525</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>3</v>
       </c>
       <c r="G257" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -7906,11 +7906,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1.745930431339525</v>
+        <v>1.440416001632845</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>3</v>
       </c>
       <c r="G258" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -7953,7 +7953,7 @@
         <v>2</v>
       </c>
       <c r="G259" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -7982,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="G260" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -8011,7 +8011,7 @@
         <v>4</v>
       </c>
       <c r="G261" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -8040,7 +8040,7 @@
         <v>1</v>
       </c>
       <c r="G262" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -8069,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="G263" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="G264" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -8127,7 +8127,7 @@
         <v>1</v>
       </c>
       <c r="G265" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
@@ -8156,7 +8156,7 @@
         <v>4</v>
       </c>
       <c r="G266" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -8185,7 +8185,7 @@
         <v>2</v>
       </c>
       <c r="G267" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -8214,7 +8214,7 @@
         <v>2</v>
       </c>
       <c r="G268" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="G269" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -8272,7 +8272,7 @@
         <v>5</v>
       </c>
       <c r="G270" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -8301,7 +8301,7 @@
         <v>2</v>
       </c>
       <c r="G271" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -8359,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -8417,7 +8417,7 @@
         <v>2</v>
       </c>
       <c r="G275" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276">
@@ -8446,7 +8446,7 @@
         <v>3</v>
       </c>
       <c r="G276" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277">
@@ -8475,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -8504,7 +8504,7 @@
         <v>2</v>
       </c>
       <c r="G278" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -8515,11 +8515,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1.568169747675148</v>
+        <v>0.6902845521851635</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>2</v>
       </c>
       <c r="G279" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -8544,11 +8544,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.6902845521851635</v>
+        <v>1.568169747675148</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>2</v>
       </c>
       <c r="G280" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -8591,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="G281" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -8602,11 +8602,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.4044900647357982</v>
+        <v>1.31723680064733</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>2</v>
       </c>
       <c r="G282" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -8631,11 +8631,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1.31723680064733</v>
+        <v>0.4044900647357982</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>2</v>
       </c>
       <c r="G283" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -8678,7 +8678,7 @@
         <v>2</v>
       </c>
       <c r="G284" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -8707,7 +8707,7 @@
         <v>7</v>
       </c>
       <c r="G285" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -8765,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="G287" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -8794,7 +8794,7 @@
         <v>2</v>
       </c>
       <c r="G288" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
@@ -8823,7 +8823,7 @@
         <v>1</v>
       </c>
       <c r="G289" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -8852,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="G290" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -8881,7 +8881,7 @@
         <v>3</v>
       </c>
       <c r="G291" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -8939,7 +8939,7 @@
         <v>2</v>
       </c>
       <c r="G293" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -8997,7 +8997,7 @@
         <v>5</v>
       </c>
       <c r="G295" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -9026,7 +9026,7 @@
         <v>2</v>
       </c>
       <c r="G296" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -9084,7 +9084,7 @@
         <v>2</v>
       </c>
       <c r="G298" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -9113,7 +9113,7 @@
         <v>3</v>
       </c>
       <c r="G299" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -9142,7 +9142,7 @@
         <v>2</v>
       </c>
       <c r="G300" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -9153,11 +9153,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1.098912877113497</v>
+        <v>1.307274597006832</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1.307274597006832</v>
+        <v>1.098912877113497</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -9211,11 +9211,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1.577156646783604</v>
+        <v>1.217365379463974</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>2</v>
       </c>
       <c r="G303" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -9240,11 +9240,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1.217365379463974</v>
+        <v>1.577156646783604</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>2</v>
       </c>
       <c r="G304" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -9287,7 +9287,7 @@
         <v>2</v>
       </c>
       <c r="G305" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -9316,7 +9316,7 @@
         <v>1</v>
       </c>
       <c r="G306" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -9345,7 +9345,7 @@
         <v>1</v>
       </c>
       <c r="G307" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -9374,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="G308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -9403,7 +9403,7 @@
         <v>2</v>
       </c>
       <c r="G309" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -9432,7 +9432,7 @@
         <v>4</v>
       </c>
       <c r="G310" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -9472,11 +9472,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1.432990344870877</v>
+        <v>1.285850730055967</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>4</v>
       </c>
       <c r="G312" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -9501,11 +9501,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1.285850730055967</v>
+        <v>1.432990344870877</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>4</v>
       </c>
       <c r="G313" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -9530,11 +9530,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1.431128997860111</v>
+        <v>1.284102815767845</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>1</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1.284102815767845</v>
+        <v>1.431128997860111</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="G315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -9606,7 +9606,7 @@
         <v>3</v>
       </c>
       <c r="G316" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -9635,7 +9635,7 @@
         <v>10</v>
       </c>
       <c r="G317" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -9693,7 +9693,7 @@
         <v>4</v>
       </c>
       <c r="G319" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -9722,7 +9722,7 @@
         <v>2</v>
       </c>
       <c r="G320" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -9751,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="G321" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="G322" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -9838,7 +9838,7 @@
         <v>3</v>
       </c>
       <c r="G324" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -9867,7 +9867,7 @@
         <v>2</v>
       </c>
       <c r="G325" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -9896,7 +9896,7 @@
         <v>1</v>
       </c>
       <c r="G326" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -9925,7 +9925,7 @@
         <v>7</v>
       </c>
       <c r="G327" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -9954,7 +9954,7 @@
         <v>3</v>
       </c>
       <c r="G328" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -9983,7 +9983,7 @@
         <v>17</v>
       </c>
       <c r="G329" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -10012,7 +10012,7 @@
         <v>4</v>
       </c>
       <c r="G330" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -10023,11 +10023,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1.569009602892198</v>
+        <v>1.210360049236868</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>3</v>
       </c>
       <c r="G331" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -10052,11 +10052,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.9977682419949241</v>
+        <v>1.569009602892198</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>3</v>
       </c>
       <c r="G332" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -10081,11 +10081,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1.210360049236868</v>
+        <v>0.9977682419949241</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>3</v>
       </c>
       <c r="G333" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -10128,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="G334" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -10157,7 +10157,7 @@
         <v>1</v>
       </c>
       <c r="G335" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -10186,7 +10186,7 @@
         <v>5</v>
       </c>
       <c r="G336" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="G337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -10244,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -10273,7 +10273,7 @@
         <v>3</v>
       </c>
       <c r="G339" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -10302,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -10331,7 +10331,7 @@
         <v>15</v>
       </c>
       <c r="G341" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -10360,7 +10360,7 @@
         <v>1</v>
       </c>
       <c r="G342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -10389,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -10418,7 +10418,7 @@
         <v>3</v>
       </c>
       <c r="G344" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -10447,7 +10447,7 @@
         <v>2</v>
       </c>
       <c r="G345" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -10505,7 +10505,7 @@
         <v>2</v>
       </c>
       <c r="G347" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -10534,7 +10534,7 @@
         <v>1</v>
       </c>
       <c r="G348" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -10563,7 +10563,7 @@
         <v>2</v>
       </c>
       <c r="G349" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -10592,7 +10592,7 @@
         <v>1</v>
       </c>
       <c r="G350" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
@@ -10621,7 +10621,7 @@
         <v>2</v>
       </c>
       <c r="G351" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -10650,7 +10650,7 @@
         <v>1</v>
       </c>
       <c r="G352" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -10679,7 +10679,7 @@
         <v>3</v>
       </c>
       <c r="G353" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -10708,7 +10708,7 @@
         <v>7</v>
       </c>
       <c r="G354" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -10737,7 +10737,7 @@
         <v>4</v>
       </c>
       <c r="G355" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -10766,7 +10766,7 @@
         <v>5</v>
       </c>
       <c r="G356" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -10777,11 +10777,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1.563967482127793</v>
+        <v>1.321082012934744</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>1</v>
       </c>
       <c r="G357" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -10806,11 +10806,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1.321082012934744</v>
+        <v>1.563967482127793</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>1</v>
       </c>
       <c r="G358" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -10853,7 +10853,7 @@
         <v>7</v>
       </c>
       <c r="G359" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -10882,7 +10882,7 @@
         <v>2</v>
       </c>
       <c r="G360" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -10911,7 +10911,7 @@
         <v>1</v>
       </c>
       <c r="G361" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -10940,7 +10940,7 @@
         <v>3</v>
       </c>
       <c r="G362" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -10969,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="G363" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -10998,7 +10998,7 @@
         <v>24</v>
       </c>
       <c r="G364" t="n">
-        <v>85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365">
@@ -11027,7 +11027,7 @@
         <v>10</v>
       </c>
       <c r="G365" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366">
@@ -11056,7 +11056,7 @@
         <v>18</v>
       </c>
       <c r="G366" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -11085,7 +11085,7 @@
         <v>18</v>
       </c>
       <c r="G367" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -11114,7 +11114,7 @@
         <v>3</v>
       </c>
       <c r="G368" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369">
@@ -11143,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>5409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="G371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -11259,7 +11259,7 @@
         <v>2</v>
       </c>
       <c r="G373" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -11317,7 +11317,7 @@
         <v>2</v>
       </c>
       <c r="G375" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -11357,11 +11357,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1.423234458095383</v>
+        <v>1.28362740875911</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>3</v>
       </c>
       <c r="G377" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -11386,11 +11386,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1.28362740875911</v>
+        <v>1.423234458095383</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>3</v>
       </c>
       <c r="G378" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -11502,11 +11502,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>1.436813860243922</v>
+        <v>1.296420570143641</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>3</v>
       </c>
       <c r="G382" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383">
@@ -11531,11 +11531,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1.296420570143641</v>
+        <v>1.741875758909242</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>3</v>
       </c>
       <c r="G383" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
@@ -11560,11 +11560,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>1.741875758909242</v>
+        <v>1.436813860243922</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>3</v>
       </c>
       <c r="G384" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -11607,7 +11607,7 @@
         <v>2</v>
       </c>
       <c r="G385" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
@@ -11636,7 +11636,7 @@
         <v>1</v>
       </c>
       <c r="G386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -11665,7 +11665,7 @@
         <v>2</v>
       </c>
       <c r="G387" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -11676,11 +11676,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>1.119860517555263</v>
+        <v>1.33030934429007</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>3</v>
       </c>
       <c r="G388" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -11705,11 +11705,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>1.704064110108104</v>
+        <v>1.119860517555263</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>3</v>
       </c>
       <c r="G389" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -11734,11 +11734,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1.33030934429007</v>
+        <v>1.704064110108104</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>3</v>
       </c>
       <c r="G390" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.6726713333434279</v>
+        <v>1.186558380602451</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>1</v>
       </c>
       <c r="G391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -11792,11 +11792,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1.186558380602451</v>
+        <v>0.6726713333434279</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>1</v>
       </c>
       <c r="G392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -11868,7 +11868,7 @@
         <v>2</v>
       </c>
       <c r="G394" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -11879,11 +11879,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>1.439323018180946</v>
+        <v>1.744700167107751</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>7</v>
       </c>
       <c r="G395" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -11908,11 +11908,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1.744700167107751</v>
+        <v>1.439323018180946</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>7</v>
       </c>
       <c r="G396" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -11984,7 +11984,7 @@
         <v>2</v>
       </c>
       <c r="G398" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399">
@@ -12053,11 +12053,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1.084214019608908</v>
+        <v>1.277343567971424</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="G401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402">
@@ -12082,11 +12082,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1.277343567971424</v>
+        <v>1.30605315537075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>1</v>
       </c>
       <c r="G402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -12111,11 +12111,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1.30605315537075</v>
+        <v>1.084214019608908</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>1</v>
       </c>
       <c r="G403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -12187,7 +12187,7 @@
         <v>2</v>
       </c>
       <c r="G405" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -12285,11 +12285,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1.382924478838495</v>
+        <v>1.312208138445161</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>702</v>
       </c>
       <c r="G409" t="n">
-        <v>2031</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -12314,11 +12314,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1.312208138445161</v>
+        <v>1.760733594265038</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>702</v>
       </c>
       <c r="G410" t="n">
-        <v>2031</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1.453569078949135</v>
+        <v>1.382924478838495</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>702</v>
       </c>
       <c r="G411" t="n">
-        <v>2031</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -12372,11 +12372,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1.760733594265038</v>
+        <v>1.453569078949135</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>702</v>
       </c>
       <c r="G412" t="n">
-        <v>2031</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413">
@@ -12419,7 +12419,7 @@
         <v>2</v>
       </c>
       <c r="G413" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -12448,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="G414" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -12459,11 +12459,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1.198736864815485</v>
+        <v>1.229208697860937</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>7</v>
       </c>
       <c r="G415" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -12506,7 +12506,7 @@
         <v>7</v>
       </c>
       <c r="G416" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -12517,11 +12517,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1.229208697860937</v>
+        <v>1.198736864815485</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>7</v>
       </c>
       <c r="G417" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -12564,7 +12564,7 @@
         <v>3</v>
       </c>
       <c r="G418" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -12593,7 +12593,7 @@
         <v>2</v>
       </c>
       <c r="G419" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -12709,7 +12709,7 @@
         <v>1</v>
       </c>
       <c r="G423" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -12738,7 +12738,7 @@
         <v>2</v>
       </c>
       <c r="G424" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425">
@@ -12767,7 +12767,7 @@
         <v>2</v>
       </c>
       <c r="G425" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -12778,11 +12778,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1.43219202975396</v>
+        <v>1.285101060864518</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -12807,11 +12807,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>1.285101060864518</v>
+        <v>1.43219202975396</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -12836,11 +12836,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>1.333329281737471</v>
+        <v>1.066780755379075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>4</v>
       </c>
       <c r="G428" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -12865,11 +12865,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>1.066780755379075</v>
+        <v>1.333329281737471</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>4</v>
       </c>
       <c r="G429" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -12941,7 +12941,7 @@
         <v>4</v>
       </c>
       <c r="G431" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -12970,7 +12970,7 @@
         <v>2</v>
       </c>
       <c r="G432" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -12999,7 +12999,7 @@
         <v>1018</v>
       </c>
       <c r="G433" t="n">
-        <v>2613</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -13028,7 +13028,7 @@
         <v>2</v>
       </c>
       <c r="G434" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -13039,11 +13039,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1.131458571303961</v>
+        <v>1.330391420454209</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>0</v>
       </c>
       <c r="G435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -13068,11 +13068,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1.330391420454209</v>
+        <v>1.131458571303961</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="G436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -13115,7 +13115,7 @@
         <v>4</v>
       </c>
       <c r="G437" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -13126,11 +13126,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1.198532627553472</v>
+        <v>1.306279006117613</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -13155,11 +13155,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1.306279006117613</v>
+        <v>1.229001626356988</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -13213,11 +13213,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1.229001626356988</v>
+        <v>1.198532627553472</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>2</v>
       </c>
       <c r="G442" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443">
@@ -13289,7 +13289,7 @@
         <v>2</v>
       </c>
       <c r="G443" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444">
@@ -13300,11 +13300,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1.592375747184271</v>
+        <v>1.23045543458939</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>1</v>
       </c>
       <c r="G444" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445">
@@ -13329,11 +13329,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1.23045543458939</v>
+        <v>1.592375747184271</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>1</v>
       </c>
       <c r="G445" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446">
@@ -13376,7 +13376,7 @@
         <v>1</v>
       </c>
       <c r="G446" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -13387,11 +13387,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1.429967237510785</v>
+        <v>1.734168249873754</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>2</v>
       </c>
       <c r="G447" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -13416,11 +13416,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1.734168249873754</v>
+        <v>1.429967237510785</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>2</v>
       </c>
       <c r="G448" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -13463,7 +13463,7 @@
         <v>3</v>
       </c>
       <c r="G449" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -13521,7 +13521,7 @@
         <v>1</v>
       </c>
       <c r="G451" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -13532,11 +13532,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Levels</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>1.118153018962235</v>
+        <v>1.299442880583805</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>5</v>
       </c>
       <c r="G452" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453">
@@ -13561,11 +13561,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Levels</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1.299442880583805</v>
+        <v>1.118153018962235</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>5</v>
       </c>
       <c r="G453" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -13608,7 +13608,7 @@
         <v>5</v>
       </c>
       <c r="G454" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455">
@@ -13648,11 +13648,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Cybersecurity</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1.703908533767034</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>3</v>
       </c>
       <c r="G456" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -13677,11 +13677,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1.703908533767034</v>
+        <v>1.325121767774022</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>3</v>
       </c>
       <c r="G457" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -13706,11 +13706,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Cybersecurity</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1.325121767774022</v>
+        <v>0</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>3</v>
       </c>
       <c r="G458" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -13753,7 +13753,7 @@
         <v>1</v>
       </c>
       <c r="G459" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -13782,7 +13782,7 @@
         <v>4</v>
       </c>
       <c r="G460" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -13840,7 +13840,7 @@
         <v>5</v>
       </c>
       <c r="G462" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -13869,7 +13869,7 @@
         <v>2</v>
       </c>
       <c r="G463" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464">
@@ -13898,7 +13898,7 @@
         <v>1</v>
       </c>
       <c r="G464" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -13927,7 +13927,7 @@
         <v>2</v>
       </c>
       <c r="G465" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -13956,7 +13956,7 @@
         <v>3</v>
       </c>
       <c r="G466" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467">
@@ -13985,7 +13985,7 @@
         <v>2</v>
       </c>
       <c r="G467" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -14014,7 +14014,7 @@
         <v>1</v>
       </c>
       <c r="G468" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -14043,7 +14043,7 @@
         <v>5</v>
       </c>
       <c r="G469" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -14101,7 +14101,7 @@
         <v>1</v>
       </c>
       <c r="G471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -14130,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="G472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="G473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -14170,11 +14170,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1.266319366563414</v>
+        <v>1.276967750956407</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>3</v>
       </c>
       <c r="G474" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475">
@@ -14199,11 +14199,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>1.276967750956407</v>
+        <v>1.266319366563414</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>3</v>
       </c>
       <c r="G475" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476">
@@ -14246,7 +14246,7 @@
         <v>8</v>
       </c>
       <c r="G476" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -14275,7 +14275,7 @@
         <v>31</v>
       </c>
       <c r="G477" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -14304,7 +14304,7 @@
         <v>31</v>
       </c>
       <c r="G478" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -14333,7 +14333,7 @@
         <v>30</v>
       </c>
       <c r="G479" t="n">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -14362,7 +14362,7 @@
         <v>1</v>
       </c>
       <c r="G480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -14391,7 +14391,7 @@
         <v>3</v>
       </c>
       <c r="G481" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
